--- a/JSON/Levels17MoveList.xlsx
+++ b/JSON/Levels17MoveList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emchar1/Documents/Xcode Projects/Projects/PUZL Boy/JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59A648-C2BE-D844-ADDA-0857FED0C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D1F79-2C72-8443-88D7-FDF9D65BF400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20638" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20652" uniqueCount="344">
   <si>
     <t>health</t>
   </si>
@@ -1066,6 +1066,9 @@
   <si>
     <t>D,R,U,D,L,R,D,R,D,D,R,U,L,D,R,R,D</t>
   </si>
+  <si>
+    <t>D,L,D,U,D,L,L,R,L,U,L,D,R,U,R</t>
+  </si>
 </sst>
 </file>
 
@@ -1620,7 +1623,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1655,12 +1658,7 @@
     <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2019,10 +2017,10 @@
   <dimension ref="A1:DC499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K425" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B452" sqref="B452"/>
+      <selection pane="bottomRight" activeCell="G433" sqref="G433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39092,7 +39090,7 @@
       <c r="AY261" s="12"/>
       <c r="BG261" s="13"/>
       <c r="BH261" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BI261" s="13" t="s">
         <v>78</v>
@@ -39104,7 +39102,7 @@
       <c r="BL261" s="13"/>
       <c r="BM261" s="13"/>
       <c r="BN261" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BO261" t="s">
         <v>86</v>
@@ -39130,16 +39128,16 @@
         <v>83</v>
       </c>
       <c r="CI261" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ261" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK261" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL261" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="CJ261" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK261" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL261" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="CM261" s="13"/>
       <c r="CN261" s="13"/>
@@ -39298,7 +39296,7 @@
         <v>79</v>
       </c>
       <c r="BU262" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BV262" s="13" t="s">
         <v>86</v>
@@ -39308,7 +39306,7 @@
       </c>
       <c r="BX262" s="13"/>
       <c r="BY262" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BZ262" s="13"/>
       <c r="CA262" s="13"/>
@@ -39319,7 +39317,7 @@
         <v>78</v>
       </c>
       <c r="CF262" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI262" s="13" t="s">
         <v>83</v>
@@ -39330,7 +39328,7 @@
         <v>78</v>
       </c>
       <c r="CM262" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CN262" s="13"/>
       <c r="CO262" s="13"/>
@@ -41843,7 +41841,7 @@
         <v>83</v>
       </c>
       <c r="BK276" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BL276" s="13"/>
       <c r="BM276" s="13"/>
@@ -41861,16 +41859,16 @@
       </c>
       <c r="BU276" s="13"/>
       <c r="BV276" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW276" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX276" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY276" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="BW276" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX276" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY276" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="BZ276" s="13"/>
       <c r="CA276" s="13"/>
@@ -41884,7 +41882,7 @@
         <v>86</v>
       </c>
       <c r="CF276" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI276" s="13" t="s">
         <v>86</v>
@@ -42213,7 +42211,7 @@
         <v>86</v>
       </c>
       <c r="BR278" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BU278" s="13" t="s">
         <v>78</v>
@@ -42230,16 +42228,16 @@
         <v>83</v>
       </c>
       <c r="CC278" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD278" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE278" t="s">
         <v>87</v>
       </c>
-      <c r="CD278" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE278" t="s">
-        <v>82</v>
-      </c>
       <c r="CI278" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CJ278" s="13" t="s">
         <v>78</v>
@@ -44678,7 +44676,7 @@
         <v>78</v>
       </c>
       <c r="BK292" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BL292" s="13"/>
       <c r="BM292" s="13"/>
@@ -44698,13 +44696,13 @@
       <c r="BZ292" s="13"/>
       <c r="CA292" s="13"/>
       <c r="CB292" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CE292" t="s">
         <v>78</v>
       </c>
       <c r="CF292" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CI292" s="13" t="s">
         <v>83</v>
@@ -44714,7 +44712,7 @@
       </c>
       <c r="CK292" s="13"/>
       <c r="CL292" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CM292" s="13"/>
       <c r="CN292" s="13"/>
@@ -45915,7 +45913,7 @@
       </c>
       <c r="BJ299" s="13"/>
       <c r="BK299" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BL299" s="13"/>
       <c r="BM299" s="13"/>
@@ -45958,13 +45956,13 @@
         <v>79</v>
       </c>
       <c r="CF299" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CI299" s="13" t="s">
         <v>80</v>
       </c>
       <c r="CJ299" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CK299" s="13" t="s">
         <v>79</v>
@@ -45973,7 +45971,7 @@
         <v>80</v>
       </c>
       <c r="CM299" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CN299" s="13"/>
       <c r="CO299" s="13"/>
@@ -48108,7 +48106,7 @@
         <v>79</v>
       </c>
       <c r="BJ309" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BK309" s="13" t="s">
         <v>78</v>
@@ -48134,10 +48132,10 @@
         <v>79</v>
       </c>
       <c r="BV309" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW309" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="BW309" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="BX309" s="13" t="s">
         <v>79</v>
@@ -48185,7 +48183,7 @@
         <v>80</v>
       </c>
       <c r="CQ309" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CR309" t="s">
         <v>79</v>
@@ -53159,7 +53157,7 @@
         <v>78</v>
       </c>
       <c r="BL332" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BM332" s="13"/>
       <c r="BP332" t="s">
@@ -53171,7 +53169,7 @@
       <c r="BU332" s="13"/>
       <c r="BV332" s="13"/>
       <c r="BW332" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BX332" s="13"/>
       <c r="BY332" s="13" t="s">
@@ -53191,7 +53189,7 @@
         <v>78</v>
       </c>
       <c r="CF332" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI332" s="13" t="s">
         <v>78</v>
@@ -53207,7 +53205,7 @@
       <c r="CN332" s="13"/>
       <c r="CO332" s="13"/>
       <c r="CP332" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CQ332" t="s">
         <v>79</v>
@@ -62032,15 +62030,15 @@
         <v>78</v>
       </c>
       <c r="BO375" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS375" t="s">
         <v>87</v>
-      </c>
-      <c r="BS375" t="s">
-        <v>82</v>
       </c>
       <c r="BU375" s="13"/>
       <c r="BV375" s="13"/>
       <c r="BW375" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BX375" s="13" t="s">
         <v>80</v>
@@ -62057,7 +62055,7 @@
         <v>78</v>
       </c>
       <c r="CI375" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CJ375" s="13" t="s">
         <v>78</v>
@@ -65159,7 +65157,7 @@
       <c r="BL390" s="13"/>
       <c r="BM390" s="13"/>
       <c r="BN390" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BP390" t="s">
         <v>78</v>
@@ -65168,7 +65166,7 @@
         <v>84</v>
       </c>
       <c r="BS390" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BU390" s="13" t="s">
         <v>78</v>
@@ -65193,7 +65191,7 @@
         <v>78</v>
       </c>
       <c r="CI390" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CJ390" s="13"/>
       <c r="CK390" s="13" t="s">
@@ -65209,7 +65207,7 @@
         <v>83</v>
       </c>
       <c r="CQ390" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CR390" t="s">
         <v>78</v>
@@ -65605,11 +65603,11 @@
         <v>78</v>
       </c>
       <c r="BQ392" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BU392" s="13"/>
       <c r="BV392" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BW392" s="13"/>
       <c r="BX392" s="13" t="s">
@@ -65627,12 +65625,12 @@
         <v>78</v>
       </c>
       <c r="CF392" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CI392" s="13"/>
       <c r="CJ392" s="13"/>
       <c r="CK392" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CL392" s="13" t="s">
         <v>78</v>
@@ -67346,7 +67344,7 @@
         <v>78</v>
       </c>
       <c r="BK400" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BL400" s="13" t="s">
         <v>84</v>
@@ -67356,7 +67354,7 @@
         <v>78</v>
       </c>
       <c r="BQ400" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BR400" t="s">
         <v>78</v>
@@ -67378,14 +67376,14 @@
         <v>83</v>
       </c>
       <c r="CG400" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI400" s="13"/>
       <c r="CJ400" s="13" t="s">
         <v>83</v>
       </c>
       <c r="CK400" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CL400" s="13" t="s">
         <v>84</v>
@@ -67559,7 +67557,7 @@
         <v>78</v>
       </c>
       <c r="BL401" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BM401" s="13"/>
       <c r="BN401" t="s">
@@ -67583,7 +67581,7 @@
       </c>
       <c r="BW401" s="13"/>
       <c r="BX401" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BY401" s="13" t="s">
         <v>78</v>
@@ -67594,7 +67592,7 @@
         <v>78</v>
       </c>
       <c r="CD401" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CF401" t="s">
         <v>78</v>
@@ -67617,7 +67615,7 @@
       </c>
       <c r="CO401" s="13"/>
       <c r="CP401" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CQ401" t="s">
         <v>78</v>
@@ -67833,7 +67831,7 @@
       <c r="DC402" s="13"/>
     </row>
     <row r="403" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A403" s="17">
+      <c r="A403" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -68111,7 +68109,7 @@
       <c r="DC403" s="13"/>
     </row>
     <row r="404" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A404" s="17">
+      <c r="A404" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -68421,7 +68419,7 @@
       <c r="DC404" s="13"/>
     </row>
     <row r="405" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A405" s="17">
+      <c r="A405" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -68726,7 +68724,7 @@
       <c r="DC405" s="13"/>
     </row>
     <row r="406" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A406" s="17">
+      <c r="A406" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -69017,7 +69015,7 @@
       </c>
     </row>
     <row r="407" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A407" s="17">
+      <c r="A407" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -69208,26 +69206,26 @@
       </c>
       <c r="BM407" s="13"/>
       <c r="BO407" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP407" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ407" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR407" t="s">
         <v>82</v>
       </c>
-      <c r="BP407" t="s">
+      <c r="BS407" t="s">
         <v>90</v>
-      </c>
-      <c r="BQ407" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR407" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS407" t="s">
-        <v>82</v>
       </c>
       <c r="BT407" t="s">
         <v>79</v>
       </c>
       <c r="BU407" s="13"/>
       <c r="BV407" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BW407" s="13" t="s">
         <v>79</v>
@@ -69286,7 +69284,7 @@
         <v>80</v>
       </c>
       <c r="CQ407" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CR407" t="s">
         <v>79</v>
@@ -69314,7 +69312,7 @@
       <c r="DC407" s="13"/>
     </row>
     <row r="408" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A408" s="17">
+      <c r="A408" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -69496,7 +69494,7 @@
         <v>82</v>
       </c>
       <c r="BI408" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BJ408" s="13" t="s">
         <v>80</v>
@@ -69506,7 +69504,7 @@
         <v>79</v>
       </c>
       <c r="BM408" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BN408" t="s">
         <v>79</v>
@@ -69530,7 +69528,7 @@
         <v>82</v>
       </c>
       <c r="BU408" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BV408" s="13" t="s">
         <v>79</v>
@@ -69551,7 +69549,7 @@
         <v>78</v>
       </c>
       <c r="CB408" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CC408" t="s">
         <v>79</v>
@@ -69632,7 +69630,7 @@
       <c r="DC408" s="13"/>
     </row>
     <row r="409" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A409" s="17">
+      <c r="A409" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -69937,7 +69935,7 @@
       <c r="DC409" s="13"/>
     </row>
     <row r="410" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A410" s="17">
+      <c r="A410" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -70233,7 +70231,7 @@
       <c r="DC410" s="13"/>
     </row>
     <row r="411" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A411" s="17">
+      <c r="A411" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -70421,10 +70419,10 @@
         <v>80</v>
       </c>
       <c r="BM411" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN411" t="s">
         <v>90</v>
-      </c>
-      <c r="BN411" t="s">
-        <v>87</v>
       </c>
       <c r="BO411" t="s">
         <v>78</v>
@@ -70475,19 +70473,19 @@
         <v>79</v>
       </c>
       <c r="CO411" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CT411" t="s">
+        <v>79</v>
+      </c>
+      <c r="CU411" t="s">
+        <v>78</v>
+      </c>
+      <c r="CV411" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW411" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="CT411" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU411" t="s">
-        <v>78</v>
-      </c>
-      <c r="CV411" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW411" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="CX411" s="13" t="s">
         <v>80</v>
@@ -70503,7 +70501,7 @@
       <c r="DC411" s="13"/>
     </row>
     <row r="412" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A412" s="17">
+      <c r="A412" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -70825,7 +70823,7 @@
       <c r="DC412" s="13"/>
     </row>
     <row r="413" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A413" s="17">
+      <c r="A413" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -71019,7 +71017,7 @@
         <v>90</v>
       </c>
       <c r="BM413" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BN413" t="s">
         <v>80</v>
@@ -71040,7 +71038,7 @@
         <v>78</v>
       </c>
       <c r="BT413" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BU413" s="13" t="s">
         <v>79</v>
@@ -71106,28 +71104,28 @@
         <v>79</v>
       </c>
       <c r="CP413" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ413" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR413" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS413" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT413" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU413" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV413" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW413" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="CQ413" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR413" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS413" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT413" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU413" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV413" t="s">
-        <v>78</v>
-      </c>
-      <c r="CW413" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="CX413" s="13" t="s">
         <v>90</v>
@@ -71147,7 +71145,7 @@
       <c r="DC413" s="13"/>
     </row>
     <row r="414" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A414" s="17">
+      <c r="A414" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -71431,7 +71429,7 @@
       <c r="DC414" s="13"/>
     </row>
     <row r="415" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A415" s="17">
+      <c r="A415" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -71623,112 +71621,112 @@
         <v>78</v>
       </c>
       <c r="BM415" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO415" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP415" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ415" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR415" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT415" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU415" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV415" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BO415" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP415" t="s">
+      <c r="BW415" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CH415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CJ415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN415" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO415" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP415" t="s">
         <v>87</v>
       </c>
-      <c r="BQ415" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR415" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT415" t="s">
-        <v>78</v>
-      </c>
-      <c r="BU415" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV415" s="13" t="s">
+      <c r="CQ415" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS415" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT415" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU415" t="s">
+        <v>90</v>
+      </c>
+      <c r="CV415" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW415" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX415" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="BW415" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN415" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO415" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP415" t="s">
-        <v>90</v>
-      </c>
-      <c r="CQ415" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS415" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT415" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU415" t="s">
-        <v>82</v>
-      </c>
-      <c r="CV415" t="s">
-        <v>78</v>
-      </c>
-      <c r="CW415" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CX415" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="CY415" s="13" t="s">
         <v>79</v>
@@ -71745,7 +71743,7 @@
       <c r="DC415" s="13"/>
     </row>
     <row r="416" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A416" s="17">
+      <c r="A416" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -71923,7 +71921,7 @@
         <v>76</v>
       </c>
       <c r="BG416" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BH416" s="13" t="s">
         <v>78</v>
@@ -71952,7 +71950,7 @@
         <v>79</v>
       </c>
       <c r="BW416" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BX416" s="13" t="s">
         <v>78</v>
@@ -71998,7 +71996,7 @@
         <v>79</v>
       </c>
       <c r="CU416" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CV416" t="s">
         <v>80</v>
@@ -72014,11 +72012,11 @@
         <v>78</v>
       </c>
       <c r="DC416" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A417" s="17">
+      <c r="A417" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -72332,7 +72330,7 @@
       <c r="DC417" s="13"/>
     </row>
     <row r="418" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A418" s="17">
+      <c r="A418" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -72648,7 +72646,7 @@
       <c r="DC418" s="13"/>
     </row>
     <row r="419" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A419" s="17">
+      <c r="A419" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -72944,7 +72942,7 @@
       <c r="DC419" s="13"/>
     </row>
     <row r="420" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A420" s="17">
+      <c r="A420" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -73135,10 +73133,10 @@
         <v>79</v>
       </c>
       <c r="BL420" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BM420" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BO420" t="s">
         <v>84</v>
@@ -73156,73 +73154,73 @@
         <v>79</v>
       </c>
       <c r="BT420" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB420" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC420" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD420" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE420" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF420" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG420" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH420" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM420" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO420" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CP420" t="s">
         <v>82</v>
-      </c>
-      <c r="BU420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB420" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC420" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD420" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE420" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF420" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG420" t="s">
-        <v>78</v>
-      </c>
-      <c r="CH420" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CJ420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM420" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO420" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CP420" t="s">
-        <v>87</v>
       </c>
       <c r="CQ420" t="s">
         <v>79</v>
@@ -73240,10 +73238,10 @@
         <v>80</v>
       </c>
       <c r="CW420" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="CX420" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CY420" s="13" t="s">
         <v>79</v>
@@ -73260,7 +73258,7 @@
       <c r="DC420" s="13"/>
     </row>
     <row r="421" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A421" s="17">
+      <c r="A421" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -73513,7 +73511,7 @@
       <c r="DC421" s="13"/>
     </row>
     <row r="422" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A422" s="17">
+      <c r="A422" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -73698,7 +73696,7 @@
         <v>90</v>
       </c>
       <c r="BL422" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BM422" s="13" t="s">
         <v>80</v>
@@ -73713,13 +73711,13 @@
         <v>79</v>
       </c>
       <c r="BQ422" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BS422" t="s">
         <v>80</v>
       </c>
       <c r="BT422" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BU422" s="13" t="s">
         <v>79</v>
@@ -73756,7 +73754,7 @@
         <v>79</v>
       </c>
       <c r="CG422" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CI422" s="13" t="s">
         <v>78</v>
@@ -73816,7 +73814,7 @@
       <c r="DC422" s="13"/>
     </row>
     <row r="423" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A423" s="17">
+      <c r="A423" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -74114,7 +74112,7 @@
       <c r="DC423" s="13"/>
     </row>
     <row r="424" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A424" s="17">
+      <c r="A424" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -74294,7 +74292,7 @@
       <c r="BG424" s="13"/>
       <c r="BH424" s="13"/>
       <c r="BI424" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BJ424" s="13" t="s">
         <v>80</v>
@@ -74314,7 +74312,7 @@
         <v>79</v>
       </c>
       <c r="BT424" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BU424" s="13" t="s">
         <v>82</v>
@@ -74368,19 +74366,19 @@
         <v>79</v>
       </c>
       <c r="CO424" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CS424" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT424" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW424" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX424" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="CS424" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT424" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW424" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CX424" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="CY424" s="13"/>
       <c r="CZ424" s="13"/>
@@ -74391,7 +74389,7 @@
       <c r="DC424" s="13"/>
     </row>
     <row r="425" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A425" s="17">
+      <c r="A425" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -74570,7 +74568,7 @@
       </c>
       <c r="BG425" s="13"/>
       <c r="BH425" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BI425" s="13"/>
       <c r="BJ425" s="13" t="s">
@@ -74601,73 +74599,73 @@
         <v>79</v>
       </c>
       <c r="BS425" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT425" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU425" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ425" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB425" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC425" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD425" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE425" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF425" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG425" t="s">
+        <v>79</v>
+      </c>
+      <c r="CH425" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CJ425" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK425" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN425" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO425" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="BT425" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU425" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ425" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB425" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC425" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD425" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE425" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF425" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG425" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH425" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ425" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK425" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN425" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO425" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="CP425" t="s">
         <v>79</v>
@@ -74706,7 +74704,7 @@
       <c r="DC425" s="13"/>
     </row>
     <row r="426" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A426" s="17">
+      <c r="A426" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -75017,7 +75015,7 @@
       <c r="DC426" s="13"/>
     </row>
     <row r="427" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A427" s="17">
+      <c r="A427" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -75196,7 +75194,7 @@
       </c>
       <c r="BG427" s="13"/>
       <c r="BH427" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BI427" s="13"/>
       <c r="BJ427" s="13" t="s">
@@ -75209,10 +75207,10 @@
         <v>78</v>
       </c>
       <c r="BM427" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BN427" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BO427" t="s">
         <v>79</v>
@@ -75257,7 +75255,7 @@
         <v>79</v>
       </c>
       <c r="CN427" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CO427" s="13" t="s">
         <v>79</v>
@@ -75272,16 +75270,16 @@
         <v>79</v>
       </c>
       <c r="CT427" t="s">
+        <v>90</v>
+      </c>
+      <c r="CU427" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV427" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW427" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="CU427" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV427" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW427" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="CX427" s="13"/>
       <c r="CY427" s="13" t="s">
@@ -75297,7 +75295,7 @@
       <c r="DC427" s="13"/>
     </row>
     <row r="428" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A428" s="17">
+      <c r="A428" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -75549,7 +75547,7 @@
       <c r="DC428" s="13"/>
     </row>
     <row r="429" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A429" s="17">
+      <c r="A429" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -75762,16 +75760,16 @@
         <v>78</v>
       </c>
       <c r="CA429" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB429" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC429" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD429" t="s">
         <v>87</v>
-      </c>
-      <c r="CB429" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC429" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD429" t="s">
-        <v>90</v>
       </c>
       <c r="CF429" t="s">
         <v>83</v>
@@ -75786,7 +75784,7 @@
       <c r="CK429" s="13"/>
       <c r="CL429" s="13"/>
       <c r="CM429" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CN429" s="13" t="s">
         <v>83</v>
@@ -75808,7 +75806,7 @@
         <v>83</v>
       </c>
       <c r="CW429" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CX429" s="13" t="s">
         <v>78</v>
@@ -75822,7 +75820,7 @@
       <c r="DC429" s="13"/>
     </row>
     <row r="430" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A430" s="17">
+      <c r="A430" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -76129,7 +76127,7 @@
       <c r="DC430" s="13"/>
     </row>
     <row r="431" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A431" s="17">
+      <c r="A431" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -76397,7 +76395,7 @@
       </c>
     </row>
     <row r="432" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A432" s="17">
+      <c r="A432" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -76578,7 +76576,7 @@
         <v>83</v>
       </c>
       <c r="BH432" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BI432" s="13"/>
       <c r="BJ432" s="13"/>
@@ -76628,7 +76626,7 @@
         <v>78</v>
       </c>
       <c r="CB432" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CC432" t="s">
         <v>78</v>
@@ -76680,10 +76678,10 @@
         <v>78</v>
       </c>
       <c r="CT432" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU432" t="s">
         <v>87</v>
-      </c>
-      <c r="CU432" t="s">
-        <v>82</v>
       </c>
       <c r="CV432" t="s">
         <v>83</v>
@@ -76711,7 +76709,7 @@
       </c>
     </row>
     <row r="433" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A433" s="17">
+      <c r="A433" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -76918,70 +76916,70 @@
         <v>90</v>
       </c>
       <c r="BU433" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA433" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB433" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC433" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD433" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE433" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF433" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG433" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH433" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI433" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CJ433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK433" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL433" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM433" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN433" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO433" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BV433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA433" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB433" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC433" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD433" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE433" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF433" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG433" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH433" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI433" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK433" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL433" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CM433" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CN433" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO433" s="13" t="s">
+      <c r="CP433" t="s">
         <v>82</v>
-      </c>
-      <c r="CP433" t="s">
-        <v>87</v>
       </c>
       <c r="CQ433" t="s">
         <v>83</v>
@@ -77014,7 +77012,7 @@
         <v>79</v>
       </c>
       <c r="DA433" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="DB433" s="13" t="s">
         <v>84</v>
@@ -77024,7 +77022,7 @@
       </c>
     </row>
     <row r="434" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A434" s="17">
+      <c r="A434" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -77330,7 +77328,7 @@
       <c r="DC434" s="13"/>
     </row>
     <row r="435" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A435" s="17">
+      <c r="A435" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -77597,7 +77595,7 @@
       <c r="DC435" s="13"/>
     </row>
     <row r="436" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A436" s="17">
+      <c r="A436" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -77787,64 +77785,64 @@
         <v>78</v>
       </c>
       <c r="BM436" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN436" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO436" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP436" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ436" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR436" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS436" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT436" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU436" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV436" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW436" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX436" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY436" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ436" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA436" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB436" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC436" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD436" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG436" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH436" t="s">
         <v>90</v>
-      </c>
-      <c r="BN436" t="s">
-        <v>82</v>
-      </c>
-      <c r="BO436" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP436" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ436" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR436" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS436" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT436" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU436" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV436" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW436" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="BX436" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY436" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ436" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA436" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB436" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC436" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD436" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG436" t="s">
-        <v>78</v>
-      </c>
-      <c r="CH436" t="s">
-        <v>87</v>
       </c>
       <c r="CI436" s="13"/>
       <c r="CJ436" s="13"/>
@@ -77867,7 +77865,7 @@
         <v>78</v>
       </c>
       <c r="CW436" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CX436" s="13" t="s">
         <v>78</v>
@@ -77877,13 +77875,13 @@
         <v>79</v>
       </c>
       <c r="DA436" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="DB436" s="13"/>
       <c r="DC436" s="13"/>
     </row>
     <row r="437" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A437" s="17">
+      <c r="A437" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -78074,7 +78072,7 @@
         <v>79</v>
       </c>
       <c r="BO437" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BP437" t="s">
         <v>83</v>
@@ -78086,7 +78084,7 @@
         <v>83</v>
       </c>
       <c r="BS437" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BT437" t="s">
         <v>87</v>
@@ -78117,7 +78115,7 @@
         <v>78</v>
       </c>
       <c r="CE437" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="CF437" t="s">
         <v>78</v>
@@ -78168,7 +78166,7 @@
         <v>79</v>
       </c>
       <c r="CX437" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="CY437" s="13" t="s">
         <v>79</v>
@@ -78183,7 +78181,7 @@
       <c r="DC437" s="13"/>
     </row>
     <row r="438" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A438" s="17">
+      <c r="A438" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -78454,7 +78452,7 @@
       <c r="DC438" s="13"/>
     </row>
     <row r="439" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A439" s="17">
+      <c r="A439" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -78654,7 +78652,7 @@
         <v>83</v>
       </c>
       <c r="BT439" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BU439" s="13"/>
       <c r="BV439" s="13"/>
@@ -78671,25 +78669,25 @@
         <v>83</v>
       </c>
       <c r="CA439" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB439" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD439" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE439" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF439" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG439" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH439" t="s">
         <v>87</v>
-      </c>
-      <c r="CB439" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD439" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE439" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF439" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG439" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH439" t="s">
-        <v>82</v>
       </c>
       <c r="CI439" s="13"/>
       <c r="CJ439" s="13"/>
@@ -78727,11 +78725,11 @@
       <c r="DA439" s="13"/>
       <c r="DB439" s="13"/>
       <c r="DC439" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="440" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A440" s="17">
+      <c r="A440" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -79032,7 +79030,7 @@
       </c>
     </row>
     <row r="441" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A441" s="17">
+      <c r="A441" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -79211,10 +79209,10 @@
       </c>
       <c r="BG441" s="13"/>
       <c r="BH441" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BI441" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="BJ441" s="13" t="s">
         <v>83</v>
@@ -79264,7 +79262,7 @@
         <v>78</v>
       </c>
       <c r="CB441" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CD441" t="s">
         <v>79</v>
@@ -79290,7 +79288,7 @@
       </c>
       <c r="CN441" s="13"/>
       <c r="CO441" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="CP441" t="s">
         <v>79</v>
@@ -79312,7 +79310,7 @@
       </c>
       <c r="CW441" s="13"/>
       <c r="CX441" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CY441" s="13" t="s">
         <v>79</v>
@@ -79320,14 +79318,14 @@
       <c r="CZ441" s="13"/>
       <c r="DA441" s="13"/>
       <c r="DB441" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="DC441" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="442" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A442" s="17">
+      <c r="A442" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -79649,7 +79647,7 @@
       <c r="DC442" s="13"/>
     </row>
     <row r="443" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A443" s="17">
+      <c r="A443" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -79916,7 +79914,7 @@
       <c r="DC443" s="13"/>
     </row>
     <row r="444" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A444" s="17">
+      <c r="A444" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -80194,7 +80192,7 @@
       <c r="DC444" s="13"/>
     </row>
     <row r="445" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A445" s="17">
+      <c r="A445" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -80409,10 +80407,10 @@
         <v>79</v>
       </c>
       <c r="BU445" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV445" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="BV445" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="BW445" s="13" t="s">
         <v>79</v>
@@ -80433,7 +80431,7 @@
         <v>82</v>
       </c>
       <c r="CC445" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CD445" t="s">
         <v>79</v>
@@ -80454,7 +80452,7 @@
         <v>82</v>
       </c>
       <c r="CJ445" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CK445" s="13" t="s">
         <v>78</v>
@@ -80507,7 +80505,7 @@
       </c>
     </row>
     <row r="446" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A446" s="17">
+      <c r="A446" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
@@ -80692,7 +80690,7 @@
         <v>79</v>
       </c>
       <c r="BL446" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BM446" s="13" t="s">
         <v>78</v>
@@ -80724,16 +80722,16 @@
         <v>83</v>
       </c>
       <c r="CA446" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD446" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE446" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF446" t="s">
         <v>87</v>
-      </c>
-      <c r="CD446" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE446" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF446" t="s">
-        <v>90</v>
       </c>
       <c r="CG446" t="s">
         <v>83</v>
@@ -80787,7 +80785,7 @@
         <v>83</v>
       </c>
       <c r="CY446" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CZ446" s="13"/>
       <c r="DA446" s="13" t="s">
@@ -80799,11 +80797,11 @@
       <c r="DC446" s="13"/>
     </row>
     <row r="447" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A447" s="17">
+      <c r="A447" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="B447" s="16" t="s">
+      <c r="B447" s="8" t="s">
         <v>337</v>
       </c>
       <c r="C447" s="8"/>
@@ -81079,11 +81077,11 @@
       <c r="DC447" s="13"/>
     </row>
     <row r="448" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A448" s="17">
+      <c r="A448" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="B448" s="16" t="s">
+      <c r="B448" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C448" s="8"/>
@@ -81329,11 +81327,11 @@
       </c>
     </row>
     <row r="449" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A449" s="17">
+      <c r="A449" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="B449" s="16" t="s">
+      <c r="B449" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C449" s="8"/>
@@ -81516,7 +81514,7 @@
         <v>86</v>
       </c>
       <c r="BL449" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BM449" s="13" t="s">
         <v>80</v>
@@ -81528,7 +81526,7 @@
         <v>86</v>
       </c>
       <c r="BR449" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BS449" t="s">
         <v>86</v>
@@ -81544,11 +81542,11 @@
       </c>
       <c r="BX449" s="13"/>
       <c r="BY449" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BZ449" s="13"/>
       <c r="CA449" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CB449" t="s">
         <v>83</v>
@@ -81633,11 +81631,11 @@
       </c>
     </row>
     <row r="450" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A450" s="17">
+      <c r="A450" s="7">
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="B450" s="16" t="s">
+      <c r="B450" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C450" s="8"/>
@@ -81898,7 +81896,7 @@
       <c r="DC450" s="13"/>
     </row>
     <row r="451" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A451" s="17">
+      <c r="A451" s="7">
         <f t="shared" ref="A451:A499" si="35">COUNTA(J451:P451)</f>
         <v>7</v>
       </c>
@@ -82150,7 +82148,7 @@
       <c r="DC451" s="13"/>
     </row>
     <row r="452" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A452" s="17">
+      <c r="A452" s="7">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
@@ -82405,19 +82403,21 @@
       <c r="DC452" s="13"/>
     </row>
     <row r="453" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A453" s="17">
+      <c r="A453" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B453" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="C453" s="8"/>
       <c r="D453" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E453" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F453" s="10">
         <f t="shared" si="39"/>
@@ -82428,7 +82428,7 @@
         <v>451</v>
       </c>
       <c r="H453" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I453" s="11">
         <v>1</v>
@@ -82451,6 +82451,9 @@
       <c r="O453" t="s">
         <v>85</v>
       </c>
+      <c r="P453" t="s">
+        <v>85</v>
+      </c>
       <c r="Q453" s="12" t="s">
         <v>85</v>
       </c>
@@ -82469,7 +82472,9 @@
       <c r="V453" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W453" s="12"/>
+      <c r="W453" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X453" t="s">
         <v>85</v>
       </c>
@@ -82488,6 +82493,9 @@
       <c r="AC453" t="s">
         <v>85</v>
       </c>
+      <c r="AD453" t="s">
+        <v>85</v>
+      </c>
       <c r="AE453" s="12" t="s">
         <v>85</v>
       </c>
@@ -82506,7 +82514,9 @@
       <c r="AJ453" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK453" s="12"/>
+      <c r="AK453" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL453" t="s">
         <v>85</v>
       </c>
@@ -82525,6 +82535,9 @@
       <c r="AQ453" t="s">
         <v>85</v>
       </c>
+      <c r="AR453" t="s">
+        <v>85</v>
+      </c>
       <c r="AS453" s="12" t="s">
         <v>85</v>
       </c>
@@ -82541,91 +82554,112 @@
         <v>85</v>
       </c>
       <c r="AX453" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY453" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE453" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF453" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AY453" s="12"/>
       <c r="BG453" s="13"/>
       <c r="BH453" s="13"/>
       <c r="BI453" s="13"/>
-      <c r="BJ453" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BJ453" s="13"/>
       <c r="BK453" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL453" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM453" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP453" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR453" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS453" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT453" t="s">
         <v>90</v>
-      </c>
-      <c r="BL453" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM453" s="13"/>
-      <c r="BP453" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ453" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR453" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS453" t="s">
-        <v>87</v>
       </c>
       <c r="BU453" s="13"/>
       <c r="BV453" s="13"/>
-      <c r="BW453" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BW453" s="13"/>
       <c r="BX453" s="13"/>
-      <c r="BY453" s="13" t="s">
+      <c r="BY453" s="13"/>
+      <c r="BZ453" s="13"/>
+      <c r="CA453" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD453" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG453" t="s">
         <v>82</v>
       </c>
-      <c r="BZ453" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA453" s="13"/>
-      <c r="CC453" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF453" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI453" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ453" s="13"/>
+      <c r="CI453" s="13"/>
+      <c r="CJ453" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="CK453" s="13"/>
       <c r="CL453" s="13"/>
-      <c r="CM453" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="CM453" s="13"/>
       <c r="CN453" s="13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="CO453" s="13"/>
       <c r="CP453" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ453" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS453" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU453" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV453" t="s">
         <v>87</v>
       </c>
-      <c r="CT453" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU453" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW453" s="13"/>
-      <c r="CX453" s="13"/>
+      <c r="CW453" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CX453" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CY453" s="13"/>
       <c r="CZ453" s="13"/>
-      <c r="DA453" s="13"/>
-      <c r="DB453" s="13"/>
-      <c r="DC453" s="13"/>
+      <c r="DA453" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="DB453" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC453" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="454" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A454" s="17">
+      <c r="A454" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -82772,7 +82806,7 @@
       <c r="BJ454" s="13"/>
       <c r="BK454" s="13"/>
       <c r="BL454" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BM454" s="13"/>
       <c r="BN454" t="s">
@@ -82788,14 +82822,14 @@
         <v>78</v>
       </c>
       <c r="BR454" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BU454" s="13"/>
       <c r="BV454" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BW454" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="BX454" s="13" t="s">
         <v>84</v>
@@ -82814,14 +82848,14 @@
         <v>86</v>
       </c>
       <c r="CE454" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="CF454" t="s">
         <v>78</v>
       </c>
       <c r="CI454" s="13"/>
       <c r="CJ454" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CK454" s="13" t="s">
         <v>78</v>
@@ -82837,7 +82871,7 @@
       </c>
       <c r="CO454" s="13"/>
       <c r="CP454" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="CR454" t="s">
         <v>83</v>
@@ -82854,7 +82888,7 @@
       <c r="DC454" s="13"/>
     </row>
     <row r="455" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A455" s="17">
+      <c r="A455" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -83081,7 +83115,7 @@
       <c r="DC455" s="13"/>
     </row>
     <row r="456" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A456" s="17">
+      <c r="A456" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -83305,7 +83339,7 @@
       <c r="DC456" s="13"/>
     </row>
     <row r="457" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A457" s="17">
+      <c r="A457" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -83532,7 +83566,7 @@
       <c r="DC457" s="13"/>
     </row>
     <row r="458" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A458" s="17">
+      <c r="A458" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -83738,7 +83772,7 @@
       <c r="DC458" s="13"/>
     </row>
     <row r="459" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A459" s="17">
+      <c r="A459" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -83953,7 +83987,7 @@
       <c r="DC459" s="13"/>
     </row>
     <row r="460" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A460" s="17">
+      <c r="A460" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -84187,7 +84221,7 @@
       <c r="DC460" s="13"/>
     </row>
     <row r="461" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A461" s="17">
+      <c r="A461" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -84409,7 +84443,7 @@
       <c r="DC461" s="13"/>
     </row>
     <row r="462" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A462" s="17">
+      <c r="A462" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -84650,7 +84684,7 @@
       <c r="DC462" s="13"/>
     </row>
     <row r="463" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A463" s="17">
+      <c r="A463" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -84877,7 +84911,7 @@
       <c r="DC463" s="13"/>
     </row>
     <row r="464" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A464" s="17">
+      <c r="A464" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -85117,7 +85151,7 @@
       <c r="DC464" s="13"/>
     </row>
     <row r="465" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A465" s="17">
+      <c r="A465" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -85336,7 +85370,7 @@
       <c r="DC465" s="13"/>
     </row>
     <row r="466" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A466" s="17">
+      <c r="A466" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -85559,7 +85593,7 @@
       <c r="DC466" s="13"/>
     </row>
     <row r="467" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A467" s="17">
+      <c r="A467" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -85784,7 +85818,7 @@
       <c r="DC467" s="13"/>
     </row>
     <row r="468" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A468" s="17">
+      <c r="A468" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -86014,7 +86048,7 @@
       <c r="DC468" s="13"/>
     </row>
     <row r="469" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A469" s="17">
+      <c r="A469" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -86248,7 +86282,7 @@
       <c r="DC469" s="13"/>
     </row>
     <row r="470" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A470" s="17">
+      <c r="A470" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -86475,7 +86509,7 @@
       <c r="DC470" s="13"/>
     </row>
     <row r="471" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A471" s="17">
+      <c r="A471" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -86727,7 +86761,7 @@
       <c r="DC471" s="13"/>
     </row>
     <row r="472" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A472" s="17">
+      <c r="A472" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -86953,7 +86987,7 @@
       <c r="DC472" s="13"/>
     </row>
     <row r="473" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A473" s="17">
+      <c r="A473" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -87176,7 +87210,7 @@
       <c r="DC473" s="13"/>
     </row>
     <row r="474" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A474" s="17">
+      <c r="A474" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -87403,7 +87437,7 @@
       <c r="DC474" s="13"/>
     </row>
     <row r="475" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A475" s="17">
+      <c r="A475" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -87635,7 +87669,7 @@
       <c r="DC475" s="13"/>
     </row>
     <row r="476" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A476" s="17">
+      <c r="A476" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -87873,7 +87907,7 @@
       <c r="DC476" s="13"/>
     </row>
     <row r="477" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A477" s="17">
+      <c r="A477" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -88092,7 +88126,7 @@
       <c r="DC477" s="13"/>
     </row>
     <row r="478" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A478" s="17">
+      <c r="A478" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -88326,7 +88360,7 @@
       <c r="DC478" s="13"/>
     </row>
     <row r="479" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A479" s="17">
+      <c r="A479" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -88571,7 +88605,7 @@
       <c r="DC479" s="13"/>
     </row>
     <row r="480" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A480" s="17">
+      <c r="A480" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -88812,7 +88846,7 @@
       <c r="DC480" s="13"/>
     </row>
     <row r="481" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A481" s="17">
+      <c r="A481" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -89051,7 +89085,7 @@
       <c r="DC481" s="13"/>
     </row>
     <row r="482" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A482" s="17">
+      <c r="A482" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -89280,7 +89314,7 @@
       <c r="DC482" s="13"/>
     </row>
     <row r="483" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A483" s="17">
+      <c r="A483" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -89510,7 +89544,7 @@
       <c r="DC483" s="13"/>
     </row>
     <row r="484" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A484" s="17">
+      <c r="A484" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -89715,7 +89749,7 @@
       <c r="DC484" s="13"/>
     </row>
     <row r="485" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A485" s="17">
+      <c r="A485" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -89946,7 +89980,7 @@
       <c r="DC485" s="13"/>
     </row>
     <row r="486" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A486" s="17">
+      <c r="A486" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -90177,7 +90211,7 @@
       <c r="DC486" s="13"/>
     </row>
     <row r="487" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A487" s="17">
+      <c r="A487" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -90405,7 +90439,7 @@
       <c r="DC487" s="13"/>
     </row>
     <row r="488" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A488" s="17">
+      <c r="A488" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -90656,7 +90690,7 @@
       <c r="DC488" s="13"/>
     </row>
     <row r="489" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A489" s="17">
+      <c r="A489" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -90902,7 +90936,7 @@
       <c r="DC489" s="13"/>
     </row>
     <row r="490" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A490" s="17">
+      <c r="A490" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -91122,7 +91156,7 @@
       <c r="DC490" s="13"/>
     </row>
     <row r="491" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A491" s="17">
+      <c r="A491" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -91330,7 +91364,7 @@
       <c r="DC491" s="13"/>
     </row>
     <row r="492" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A492" s="17">
+      <c r="A492" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -91571,7 +91605,7 @@
       <c r="DC492" s="13"/>
     </row>
     <row r="493" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A493" s="17">
+      <c r="A493" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -91803,7 +91837,7 @@
       <c r="DC493" s="13"/>
     </row>
     <row r="494" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A494" s="17">
+      <c r="A494" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -92062,7 +92096,7 @@
       <c r="DC494" s="13"/>
     </row>
     <row r="495" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A495" s="17">
+      <c r="A495" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -92281,7 +92315,7 @@
       <c r="DC495" s="13"/>
     </row>
     <row r="496" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A496" s="17">
+      <c r="A496" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -92520,7 +92554,7 @@
       <c r="DC496" s="13"/>
     </row>
     <row r="497" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A497" s="17">
+      <c r="A497" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -92747,7 +92781,7 @@
       <c r="DC497" s="13"/>
     </row>
     <row r="498" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A498" s="17">
+      <c r="A498" s="7">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -92981,7 +93015,7 @@
       <c r="DC498" s="13"/>
     </row>
     <row r="499" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="A499" s="17">
+      <c r="A499" s="7">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>

--- a/JSON/Levels17MoveList.xlsx
+++ b/JSON/Levels17MoveList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emchar1/Documents/Xcode Projects/Projects/PUZL Boy/JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D1F79-2C72-8443-88D7-FDF9D65BF400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1497BAA7-0F42-CA42-8C65-BAD7D2DCFBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20652" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21047" uniqueCount="368">
   <si>
     <t>health</t>
   </si>
@@ -1069,6 +1069,78 @@
   <si>
     <t>D,L,D,U,D,L,L,R,L,U,L,D,R,U,R</t>
   </si>
+  <si>
+    <t>D,D,R,L,L,R,U,D,D,L,L,R,U,R,R,D</t>
+  </si>
+  <si>
+    <t>R,U,L,D,L,D,R,D,L,U,R,R,U,D,U,U,D,U,L,L,U,R,D</t>
+  </si>
+  <si>
+    <t>D,R,U,R,U,D,U,U,D,R,D,R,R,L,R,U,L,D,R</t>
+  </si>
+  <si>
+    <t>R,L,D,R,L,U,L,D,R,U,D,U,L,D,R,L,D,R,D</t>
+  </si>
+  <si>
+    <t>R,L,D,R,L,R,L,D,R,U,L,L,U,R,D,L</t>
+  </si>
+  <si>
+    <t>L,D,R,R,R,U,D,U,R,R</t>
+  </si>
+  <si>
+    <t>D,D,L,U,U,D,R,D,L,U,R,L,R,D</t>
+  </si>
+  <si>
+    <t>L,R,D,U,R,D,U,L,D,L,U,L,U,L,R,D,L,R,U,D,D</t>
+  </si>
+  <si>
+    <t>D,L,D,U,U,D,U,U,U,D,U,L,L,D,R,L</t>
+  </si>
+  <si>
+    <t>U,L,U,R,D,R,D,L,R,D,U,D,L,L,R</t>
+  </si>
+  <si>
+    <t>U,D,U,L,D,R,L,R,U,L,U,R,D,R</t>
+  </si>
+  <si>
+    <t>U,L,U,R,D,L,D,U,R,U,L,D,R,R,D,L,D,U,R,D,U,L,R,D,L,D,R,L,U</t>
+  </si>
+  <si>
+    <t>L,U,R,L,D,R,D,R,D,L,D,L,U,D,R,U,R,U,D,U,L,R,D,L,U</t>
+  </si>
+  <si>
+    <t>L,D,U,R,U,R,L,D,R,D,R,L,U,R,D,R,L</t>
+  </si>
+  <si>
+    <t>L,D,R,L,U,R,U,L,R,D,R,U,D,L,U,L,R,U,D</t>
+  </si>
+  <si>
+    <t>L,U,R,L,D,R,U,R,L,D,R,U,R,L,U,D</t>
+  </si>
+  <si>
+    <t>U,D,D,L,D,R,U,U,R,L,R,U,D,D,U,R,D,U,L,D,L</t>
+  </si>
+  <si>
+    <t>R,D,L,U,L,R,L,D,R,U,R,L,L,D,L,L,R</t>
+  </si>
+  <si>
+    <t>L,U,L,U,D,R,U,D,L,D,D,L,D,L,R,U,U,D,U,R,D,L,D</t>
+  </si>
+  <si>
+    <t>D,R,L,U,R,D,L,L,R,D,U,D,U,U,D,U,R,U,D,D,D</t>
+  </si>
+  <si>
+    <t>U,L,L,R,D,R,D,R,U,D,L,D,U,R,D,L,L,U,L,D,U,D,R</t>
+  </si>
+  <si>
+    <t>D,R,D,L,R,U,L,R,U,U,R,D,L,U</t>
+  </si>
+  <si>
+    <t>U,D,L,R,D,R,D,L,U,D,L,U,R,D,L,R,D,D,L,D,U</t>
+  </si>
+  <si>
+    <t>D,R,U,R,D,R,R,D,D,L,R,D,D,L,L,D,D,U,D,U,L,R,R,R</t>
+  </si>
 </sst>
 </file>
 
@@ -1658,7 +1730,9 @@
     <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2017,10 +2091,10 @@
   <dimension ref="A1:DC499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K421" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G433" sqref="G433"/>
+      <selection pane="bottomRight" activeCell="G491" sqref="G491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82559,25 +82633,25 @@
       <c r="AY453" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AZ453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE453" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF453" s="16" t="s">
+      <c r="AZ453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE453" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF453" t="s">
         <v>77</v>
       </c>
       <c r="BG453" s="13"/>
@@ -82661,17 +82735,19 @@
     <row r="454" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A454" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B454" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="C454" s="8"/>
       <c r="D454" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E454" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" s="10">
         <f t="shared" si="39"/>
@@ -82705,6 +82781,9 @@
       <c r="O454" t="s">
         <v>85</v>
       </c>
+      <c r="P454" t="s">
+        <v>85</v>
+      </c>
       <c r="Q454" s="12" t="s">
         <v>85</v>
       </c>
@@ -82723,7 +82802,9 @@
       <c r="V454" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W454" s="12"/>
+      <c r="W454" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X454" t="s">
         <v>85</v>
       </c>
@@ -82742,6 +82823,9 @@
       <c r="AC454" t="s">
         <v>85</v>
       </c>
+      <c r="AD454" t="s">
+        <v>85</v>
+      </c>
       <c r="AE454" s="12" t="s">
         <v>85</v>
       </c>
@@ -82752,7 +82836,7 @@
         <v>85</v>
       </c>
       <c r="AH454" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AI454" s="12" t="s">
         <v>85</v>
@@ -82760,7 +82844,9 @@
       <c r="AJ454" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK454" s="12"/>
+      <c r="AK454" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL454" t="s">
         <v>85</v>
       </c>
@@ -82779,6 +82865,9 @@
       <c r="AQ454" t="s">
         <v>85</v>
       </c>
+      <c r="AR454" t="s">
+        <v>85</v>
+      </c>
       <c r="AS454" s="12" t="s">
         <v>85</v>
       </c>
@@ -82795,9 +82884,32 @@
         <v>85</v>
       </c>
       <c r="AX454" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY454" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE454" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF454" t="s">
         <v>77</v>
       </c>
-      <c r="AY454" s="12"/>
       <c r="BG454" s="13"/>
       <c r="BH454" s="13" t="s">
         <v>78</v>
@@ -82805,10 +82917,10 @@
       <c r="BI454" s="13"/>
       <c r="BJ454" s="13"/>
       <c r="BK454" s="13"/>
-      <c r="BL454" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM454" s="13"/>
+      <c r="BL454" s="13"/>
+      <c r="BM454" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BN454" t="s">
         <v>78</v>
       </c>
@@ -82822,6 +82934,9 @@
         <v>78</v>
       </c>
       <c r="BR454" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS454" t="s">
         <v>87</v>
       </c>
       <c r="BU454" s="13"/>
@@ -82829,78 +82944,87 @@
         <v>78</v>
       </c>
       <c r="BW454" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="BX454" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX454" s="13"/>
+      <c r="BY454" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BY454" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="BZ454" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA454" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="CA454" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CC454" t="s">
         <v>78</v>
       </c>
-      <c r="CD454" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE454" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF454" t="s">
+      <c r="CG454" t="s">
         <v>78</v>
       </c>
       <c r="CI454" s="13"/>
       <c r="CJ454" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK454" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL454" s="13"/>
+      <c r="CM454" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN454" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO454" s="13"/>
+      <c r="CQ454" t="s">
         <v>87</v>
       </c>
-      <c r="CK454" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL454" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CM454" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN454" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO454" s="13"/>
-      <c r="CP454" t="s">
-        <v>90</v>
-      </c>
       <c r="CR454" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="CS454" t="s">
+        <v>78</v>
+      </c>
+      <c r="CT454" t="s">
+        <v>78</v>
       </c>
       <c r="CU454" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW454" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="CV454" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW454" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="CX454" s="13"/>
-      <c r="CY454" s="13"/>
+      <c r="CY454" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CZ454" s="13"/>
       <c r="DA454" s="13"/>
       <c r="DB454" s="13"/>
-      <c r="DC454" s="13"/>
+      <c r="DC454" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="455" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A455" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B455" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="C455" s="8"/>
       <c r="D455" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E455" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455" s="10">
         <f t="shared" si="39"/>
@@ -82911,7 +83035,7 @@
         <v>453</v>
       </c>
       <c r="H455" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I455" s="11">
         <v>1</v>
@@ -82934,6 +83058,9 @@
       <c r="O455" t="s">
         <v>85</v>
       </c>
+      <c r="P455" t="s">
+        <v>85</v>
+      </c>
       <c r="Q455" s="12" t="s">
         <v>85</v>
       </c>
@@ -82952,7 +83079,9 @@
       <c r="V455" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W455" s="12"/>
+      <c r="W455" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X455" t="s">
         <v>85</v>
       </c>
@@ -82971,6 +83100,9 @@
       <c r="AC455" t="s">
         <v>85</v>
       </c>
+      <c r="AD455" t="s">
+        <v>85</v>
+      </c>
       <c r="AE455" s="12" t="s">
         <v>85</v>
       </c>
@@ -82989,7 +83121,9 @@
       <c r="AJ455" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK455" s="12"/>
+      <c r="AK455" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL455" t="s">
         <v>85</v>
       </c>
@@ -83008,6 +83142,9 @@
       <c r="AQ455" t="s">
         <v>85</v>
       </c>
+      <c r="AR455" t="s">
+        <v>85</v>
+      </c>
       <c r="AS455" s="12" t="s">
         <v>85</v>
       </c>
@@ -83024,26 +83161,49 @@
         <v>85</v>
       </c>
       <c r="AX455" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY455" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE455" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF455" t="s">
         <v>77</v>
       </c>
-      <c r="AY455" s="12"/>
       <c r="BG455" s="13"/>
       <c r="BH455" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BI455" s="13"/>
       <c r="BJ455" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BK455" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="BK455" s="13"/>
       <c r="BL455" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM455" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BM455" s="13"/>
       <c r="BN455" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BO455" t="s">
         <v>79</v>
@@ -83051,83 +83211,91 @@
       <c r="BP455" t="s">
         <v>78</v>
       </c>
-      <c r="BR455" t="s">
-        <v>78</v>
-      </c>
       <c r="BS455" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT455" t="s">
         <v>90</v>
       </c>
       <c r="BU455" s="13"/>
-      <c r="BV455" s="13"/>
+      <c r="BV455" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BW455" s="13"/>
       <c r="BX455" s="13" t="s">
         <v>90</v>
       </c>
       <c r="BY455" s="13"/>
-      <c r="BZ455" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA455" s="13"/>
-      <c r="CC455" t="s">
+      <c r="BZ455" s="13"/>
+      <c r="CA455" s="13" t="s">
         <v>78</v>
       </c>
       <c r="CD455" t="s">
         <v>79</v>
       </c>
-      <c r="CE455" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG455" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI455" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="CH455" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI455" s="13"/>
       <c r="CJ455" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK455" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL455" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM455" s="13"/>
+      <c r="CN455" s="13"/>
+      <c r="CO455" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CP455" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ455" t="s">
         <v>80</v>
       </c>
-      <c r="CK455" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL455" s="13"/>
-      <c r="CM455" s="13" t="s">
+      <c r="CR455" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU455" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV455" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW455" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CN455" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO455" s="13"/>
-      <c r="CP455" t="s">
-        <v>82</v>
-      </c>
-      <c r="CT455" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU455" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW455" s="13"/>
       <c r="CX455" s="13"/>
       <c r="CY455" s="13"/>
       <c r="CZ455" s="13"/>
       <c r="DA455" s="13"/>
-      <c r="DB455" s="13"/>
-      <c r="DC455" s="13"/>
+      <c r="DB455" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="DC455" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="456" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B456" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="C456" s="8"/>
       <c r="D456" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E456" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456" s="10">
         <f t="shared" si="39"/>
@@ -83161,6 +83329,9 @@
       <c r="O456" t="s">
         <v>85</v>
       </c>
+      <c r="P456" t="s">
+        <v>85</v>
+      </c>
       <c r="Q456" s="12" t="s">
         <v>85</v>
       </c>
@@ -83179,7 +83350,9 @@
       <c r="V456" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W456" s="12"/>
+      <c r="W456" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X456" t="s">
         <v>85</v>
       </c>
@@ -83198,6 +83371,9 @@
       <c r="AC456" t="s">
         <v>85</v>
       </c>
+      <c r="AD456" t="s">
+        <v>85</v>
+      </c>
       <c r="AE456" s="12" t="s">
         <v>85</v>
       </c>
@@ -83216,7 +83392,9 @@
       <c r="AJ456" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK456" s="12"/>
+      <c r="AK456" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL456" t="s">
         <v>85</v>
       </c>
@@ -83235,6 +83413,9 @@
       <c r="AQ456" t="s">
         <v>85</v>
       </c>
+      <c r="AR456" t="s">
+        <v>85</v>
+      </c>
       <c r="AS456" s="12" t="s">
         <v>85</v>
       </c>
@@ -83251,107 +83432,132 @@
         <v>85</v>
       </c>
       <c r="AX456" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY456" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE456" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF456" t="s">
         <v>77</v>
       </c>
-      <c r="AY456" s="12"/>
       <c r="BG456" s="13"/>
       <c r="BH456" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BI456" s="13"/>
-      <c r="BJ456" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BJ456" s="13"/>
       <c r="BK456" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="BL456" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM456" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BM456" s="13"/>
       <c r="BO456" t="s">
         <v>78</v>
       </c>
       <c r="BP456" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR456" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU456" s="13"/>
+      <c r="BV456" s="13"/>
+      <c r="BW456" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX456" s="13"/>
+      <c r="BY456" s="13"/>
+      <c r="BZ456" s="13"/>
+      <c r="CA456" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC456" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG456" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH456" t="s">
         <v>82</v>
-      </c>
-      <c r="BS456" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU456" s="13"/>
-      <c r="BV456" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BW456" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX456" s="13"/>
-      <c r="BY456" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ456" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA456" s="13"/>
-      <c r="CC456" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD456" t="s">
-        <v>87</v>
-      </c>
-      <c r="CF456" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG456" t="s">
-        <v>80</v>
       </c>
       <c r="CI456" s="13"/>
       <c r="CJ456" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK456" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CK456" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL456" s="13" t="s">
+      <c r="CL456" s="13"/>
+      <c r="CM456" s="13"/>
+      <c r="CN456" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO456" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ456" t="s">
         <v>82</v>
       </c>
-      <c r="CM456" s="13"/>
-      <c r="CN456" s="13"/>
-      <c r="CO456" s="13"/>
-      <c r="CQ456" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS456" t="s">
-        <v>86</v>
+      <c r="CR456" t="s">
+        <v>78</v>
       </c>
       <c r="CT456" t="s">
-        <v>86</v>
-      </c>
-      <c r="CU456" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="CW456" s="13"/>
-      <c r="CX456" s="13"/>
+      <c r="CX456" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CY456" s="13"/>
       <c r="CZ456" s="13"/>
-      <c r="DA456" s="13"/>
-      <c r="DB456" s="13"/>
-      <c r="DC456" s="13"/>
+      <c r="DA456" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB456" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="DC456" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="457" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B457" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="C457" s="8"/>
       <c r="D457" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E457" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F457" s="10">
         <f t="shared" si="39"/>
@@ -83385,6 +83591,9 @@
       <c r="O457" t="s">
         <v>85</v>
       </c>
+      <c r="P457" t="s">
+        <v>85</v>
+      </c>
       <c r="Q457" s="12" t="s">
         <v>85</v>
       </c>
@@ -83403,7 +83612,9 @@
       <c r="V457" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W457" s="12"/>
+      <c r="W457" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X457" t="s">
         <v>85</v>
       </c>
@@ -83422,6 +83633,9 @@
       <c r="AC457" t="s">
         <v>85</v>
       </c>
+      <c r="AD457" t="s">
+        <v>85</v>
+      </c>
       <c r="AE457" s="12" t="s">
         <v>85</v>
       </c>
@@ -83440,7 +83654,9 @@
       <c r="AJ457" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK457" s="12"/>
+      <c r="AK457" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL457" t="s">
         <v>85</v>
       </c>
@@ -83459,6 +83675,9 @@
       <c r="AQ457" t="s">
         <v>85</v>
       </c>
+      <c r="AR457" t="s">
+        <v>85</v>
+      </c>
       <c r="AS457" s="12" t="s">
         <v>85</v>
       </c>
@@ -83475,44 +83694,67 @@
         <v>85</v>
       </c>
       <c r="AX457" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY457" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE457" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF457" t="s">
         <v>77</v>
       </c>
-      <c r="AY457" s="12"/>
       <c r="BG457" s="13"/>
       <c r="BH457" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BI457" s="13"/>
       <c r="BJ457" s="13"/>
-      <c r="BK457" s="13" t="s">
+      <c r="BK457" s="13"/>
+      <c r="BL457" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BL457" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM457" s="13"/>
-      <c r="BQ457" t="s">
-        <v>78</v>
+      <c r="BM457" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="BR457" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BS457" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT457" t="s">
         <v>78</v>
       </c>
       <c r="BU457" s="13"/>
-      <c r="BV457" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BV457" s="13"/>
       <c r="BW457" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX457" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="BX457" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="BY457" s="13"/>
-      <c r="BZ457" s="13" t="s">
+      <c r="BZ457" s="13"/>
+      <c r="CA457" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CA457" s="13"/>
       <c r="CC457" t="s">
         <v>79</v>
       </c>
@@ -83526,7 +83768,7 @@
         <v>79</v>
       </c>
       <c r="CG457" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CI457" s="13"/>
       <c r="CJ457" s="13" t="s">
@@ -83535,50 +83777,54 @@
       <c r="CK457" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CL457" s="13" t="s">
+      <c r="CL457" s="13"/>
+      <c r="CM457" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CM457" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="CN457" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO457" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU457" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV457" t="s">
         <v>84</v>
       </c>
-      <c r="CO457" s="13"/>
-      <c r="CQ457" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR457" t="s">
+      <c r="CW457" s="13"/>
+      <c r="CX457" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY457" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CS457" t="s">
+      <c r="CZ457" s="13"/>
+      <c r="DA457" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CT457" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW457" s="13"/>
-      <c r="CX457" s="13"/>
-      <c r="CY457" s="13"/>
-      <c r="CZ457" s="13"/>
-      <c r="DA457" s="13"/>
-      <c r="DB457" s="13"/>
+      <c r="DB457" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="DC457" s="13"/>
     </row>
     <row r="458" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A458" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B458" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="C458" s="8"/>
       <c r="D458" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E458" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F458" s="10">
         <f t="shared" si="39"/>
@@ -83612,6 +83858,9 @@
       <c r="O458" t="s">
         <v>85</v>
       </c>
+      <c r="P458" t="s">
+        <v>85</v>
+      </c>
       <c r="Q458" s="12" t="s">
         <v>85</v>
       </c>
@@ -83630,7 +83879,9 @@
       <c r="V458" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W458" s="12"/>
+      <c r="W458" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X458" t="s">
         <v>85</v>
       </c>
@@ -83649,6 +83900,9 @@
       <c r="AC458" t="s">
         <v>85</v>
       </c>
+      <c r="AD458" t="s">
+        <v>85</v>
+      </c>
       <c r="AE458" s="12" t="s">
         <v>85</v>
       </c>
@@ -83667,7 +83921,9 @@
       <c r="AJ458" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK458" s="12"/>
+      <c r="AK458" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL458" t="s">
         <v>85</v>
       </c>
@@ -83681,30 +83937,56 @@
         <v>85</v>
       </c>
       <c r="AP458" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ458" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR458" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX458" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AQ458" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX458" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY458" s="12"/>
+      <c r="AY458" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE458" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF458" t="s">
+        <v>85</v>
+      </c>
       <c r="BG458" s="13"/>
       <c r="BH458" s="13" t="s">
         <v>78</v>
@@ -83712,79 +83994,81 @@
       <c r="BI458" s="13"/>
       <c r="BJ458" s="13"/>
       <c r="BK458" s="13"/>
-      <c r="BL458" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM458" s="13"/>
+      <c r="BL458" s="13"/>
+      <c r="BM458" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BN458" t="s">
         <v>78</v>
       </c>
-      <c r="BQ458" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS458" t="s">
+      <c r="BR458" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT458" t="s">
         <v>80</v>
       </c>
       <c r="BU458" s="13"/>
       <c r="BV458" s="13"/>
-      <c r="BW458" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BW458" s="13"/>
       <c r="BX458" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY458" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BY458" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ458" s="13"/>
+      <c r="BZ458" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CA458" s="13"/>
-      <c r="CE458" t="s">
+      <c r="CF458" t="s">
         <v>78</v>
       </c>
       <c r="CI458" s="13"/>
-      <c r="CJ458" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="CJ458" s="13"/>
       <c r="CK458" s="13"/>
       <c r="CL458" s="13"/>
-      <c r="CM458" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN458" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="CM458" s="13"/>
+      <c r="CN458" s="13"/>
       <c r="CO458" s="13"/>
-      <c r="CP458" t="s">
+      <c r="CQ458" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU458" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV458" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW458" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CT458" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU458" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW458" s="13"/>
       <c r="CX458" s="13"/>
       <c r="CY458" s="13"/>
       <c r="CZ458" s="13"/>
       <c r="DA458" s="13"/>
-      <c r="DB458" s="13"/>
-      <c r="DC458" s="13"/>
+      <c r="DB458" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC458" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="459" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A459" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B459" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="C459" s="8"/>
       <c r="D459" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E459" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F459" s="10">
         <f t="shared" si="39"/>
@@ -83818,6 +84102,9 @@
       <c r="O459" t="s">
         <v>85</v>
       </c>
+      <c r="P459" t="s">
+        <v>85</v>
+      </c>
       <c r="Q459" s="12" t="s">
         <v>85</v>
       </c>
@@ -83836,7 +84123,9 @@
       <c r="V459" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W459" s="12"/>
+      <c r="W459" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X459" t="s">
         <v>85</v>
       </c>
@@ -83855,6 +84144,9 @@
       <c r="AC459" t="s">
         <v>85</v>
       </c>
+      <c r="AD459" t="s">
+        <v>85</v>
+      </c>
       <c r="AE459" s="12" t="s">
         <v>85</v>
       </c>
@@ -83865,7 +84157,7 @@
         <v>85</v>
       </c>
       <c r="AH459" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AI459" s="12" t="s">
         <v>85</v>
@@ -83873,7 +84165,9 @@
       <c r="AJ459" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK459" s="12"/>
+      <c r="AK459" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL459" t="s">
         <v>85</v>
       </c>
@@ -83887,30 +84181,56 @@
         <v>85</v>
       </c>
       <c r="AP459" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ459" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR459" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX459" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AQ459" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX459" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY459" s="12"/>
+      <c r="AY459" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE459" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF459" t="s">
+        <v>85</v>
+      </c>
       <c r="BG459" s="13" t="s">
         <v>80</v>
       </c>
@@ -83922,16 +84242,18 @@
         <v>78</v>
       </c>
       <c r="BK459" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="BL459" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM459" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BM459" s="13"/>
-      <c r="BR459" t="s">
-        <v>79</v>
-      </c>
       <c r="BS459" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT459" t="s">
         <v>83</v>
       </c>
       <c r="BU459" s="13"/>
@@ -83939,67 +84261,68 @@
       <c r="BW459" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BX459" s="13" t="s">
+      <c r="BX459" s="13"/>
+      <c r="BY459" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BY459" s="13"/>
-      <c r="BZ459" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA459" s="13"/>
-      <c r="CB459" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC459" t="s">
+      <c r="BZ459" s="13"/>
+      <c r="CA459" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI459" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ459" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CD459" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE459" t="s">
+      <c r="CK459" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL459" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM459" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CI459" s="13"/>
-      <c r="CJ459" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK459" s="13"/>
-      <c r="CL459" s="13" t="s">
+      <c r="CN459" s="13"/>
+      <c r="CO459" s="13"/>
+      <c r="CQ459" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT459" t="s">
         <v>90</v>
       </c>
-      <c r="CM459" s="13"/>
-      <c r="CN459" s="13" t="s">
+      <c r="CV459" t="s">
         <v>84</v>
-      </c>
-      <c r="CO459" s="13"/>
-      <c r="CT459" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU459" t="s">
-        <v>82</v>
       </c>
       <c r="CW459" s="13"/>
       <c r="CX459" s="13"/>
       <c r="CY459" s="13"/>
       <c r="CZ459" s="13"/>
       <c r="DA459" s="13"/>
-      <c r="DB459" s="13"/>
-      <c r="DC459" s="13"/>
+      <c r="DB459" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC459" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="460" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B460" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="C460" s="8"/>
       <c r="D460" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E460" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" s="10">
         <f t="shared" si="39"/>
@@ -84033,6 +84356,9 @@
       <c r="O460" t="s">
         <v>85</v>
       </c>
+      <c r="P460" t="s">
+        <v>85</v>
+      </c>
       <c r="Q460" s="12" t="s">
         <v>85</v>
       </c>
@@ -84051,7 +84377,9 @@
       <c r="V460" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W460" s="12"/>
+      <c r="W460" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X460" t="s">
         <v>85</v>
       </c>
@@ -84070,6 +84398,9 @@
       <c r="AC460" t="s">
         <v>85</v>
       </c>
+      <c r="AD460" t="s">
+        <v>85</v>
+      </c>
       <c r="AE460" s="12" t="s">
         <v>85</v>
       </c>
@@ -84088,7 +84419,9 @@
       <c r="AJ460" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK460" s="12"/>
+      <c r="AK460" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL460" t="s">
         <v>85</v>
       </c>
@@ -84099,59 +84432,85 @@
         <v>85</v>
       </c>
       <c r="AO460" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP460" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ460" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR460" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS460" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT460" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU460" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV460" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AP460" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ460" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS460" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT460" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU460" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV460" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="AW460" s="12" t="s">
         <v>85</v>
       </c>
       <c r="AX460" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY460" s="12"/>
+      <c r="AY460" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ460" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA460" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB460" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC460" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD460" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE460" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF460" t="s">
+        <v>85</v>
+      </c>
       <c r="BG460" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH460" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI460" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ460" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BH460" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI460" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ460" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK460" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BK460" s="13"/>
       <c r="BL460" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM460" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BM460" s="13"/>
       <c r="BN460" t="s">
         <v>78</v>
       </c>
       <c r="BQ460" t="s">
         <v>79</v>
       </c>
-      <c r="BS460" t="s">
+      <c r="BT460" t="s">
         <v>83</v>
       </c>
       <c r="BU460" s="13"/>
@@ -84162,13 +84521,13 @@
       <c r="BX460" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BY460" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="BY460" s="13"/>
       <c r="BZ460" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA460" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="CA460" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CB460" t="s">
         <v>78</v>
       </c>
@@ -84178,62 +84537,59 @@
       <c r="CD460" t="s">
         <v>78</v>
       </c>
-      <c r="CF460" t="s">
+      <c r="CG460" t="s">
         <v>78</v>
       </c>
       <c r="CI460" s="13"/>
-      <c r="CJ460" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="CJ460" s="13"/>
       <c r="CK460" s="13" t="s">
         <v>78</v>
       </c>
       <c r="CL460" s="13"/>
       <c r="CM460" s="13"/>
-      <c r="CN460" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO460" s="13"/>
-      <c r="CP460" t="s">
+      <c r="CN460" s="13"/>
+      <c r="CO460" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ460" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW460" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CQ460" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR460" t="s">
+      <c r="CX460" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY460" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CS460" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT460" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU460" t="s">
-        <v>90</v>
-      </c>
-      <c r="CW460" s="13"/>
-      <c r="CX460" s="13"/>
-      <c r="CY460" s="13"/>
-      <c r="CZ460" s="13"/>
+      <c r="CZ460" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="DA460" s="13"/>
-      <c r="DB460" s="13"/>
-      <c r="DC460" s="13"/>
+      <c r="DB460" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC460" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="461" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B461" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="C461" s="8"/>
       <c r="D461" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E461" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F461" s="10">
         <f t="shared" si="39"/>
@@ -84244,7 +84600,7 @@
         <v>459</v>
       </c>
       <c r="H461" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I461" s="11">
         <v>1</v>
@@ -84267,6 +84623,9 @@
       <c r="O461" t="s">
         <v>85</v>
       </c>
+      <c r="P461" t="s">
+        <v>85</v>
+      </c>
       <c r="Q461" s="12" t="s">
         <v>85</v>
       </c>
@@ -84285,7 +84644,9 @@
       <c r="V461" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W461" s="12"/>
+      <c r="W461" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X461" t="s">
         <v>85</v>
       </c>
@@ -84293,36 +84654,41 @@
         <v>85</v>
       </c>
       <c r="Z461" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB461" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC461" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD461" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE461" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF461" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG461" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AA461" t="s">
+      <c r="AH461" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI461" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AB461" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC461" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE461" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF461" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG461" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH461" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI461" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="AJ461" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK461" s="12"/>
+      <c r="AK461" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL461" t="s">
         <v>85</v>
       </c>
@@ -84341,6 +84707,9 @@
       <c r="AQ461" t="s">
         <v>85</v>
       </c>
+      <c r="AR461" t="s">
+        <v>85</v>
+      </c>
       <c r="AS461" s="12" t="s">
         <v>85</v>
       </c>
@@ -84359,9 +84728,32 @@
       <c r="AX461" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY461" s="12"/>
+      <c r="AY461" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE461" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF461" t="s">
+        <v>85</v>
+      </c>
       <c r="BG461" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BH461" s="13" t="s">
         <v>80</v>
@@ -84369,93 +84761,99 @@
       <c r="BI461" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BJ461" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="BJ461" s="13"/>
       <c r="BK461" s="13" t="s">
         <v>90</v>
       </c>
       <c r="BL461" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM461" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BM461" s="13"/>
       <c r="BN461" t="s">
         <v>83</v>
       </c>
       <c r="BP461" t="s">
         <v>78</v>
       </c>
-      <c r="BR461" t="s">
-        <v>78</v>
-      </c>
       <c r="BS461" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="BT461" t="s">
+        <v>82</v>
       </c>
       <c r="BU461" s="13"/>
       <c r="BV461" s="13"/>
       <c r="BW461" s="13"/>
       <c r="BX461" s="13"/>
-      <c r="BY461" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ461" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="BY461" s="13"/>
+      <c r="BZ461" s="13"/>
       <c r="CA461" s="13"/>
-      <c r="CD461" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE461" t="s">
-        <v>78</v>
+      <c r="CC461" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG461" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH461" t="s">
+        <v>87</v>
       </c>
       <c r="CI461" s="13"/>
       <c r="CJ461" s="13"/>
-      <c r="CK461" s="13"/>
-      <c r="CL461" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="CK461" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL461" s="13"/>
       <c r="CM461" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="CN461" s="13"/>
       <c r="CO461" s="13"/>
-      <c r="CP461" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR461" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS461" t="s">
-        <v>78</v>
-      </c>
       <c r="CT461" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU461" t="s">
+        <v>90</v>
+      </c>
+      <c r="CW461" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX461" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY461" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ461" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA461" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB461" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CU461" t="s">
-        <v>78</v>
-      </c>
-      <c r="CW461" s="13"/>
-      <c r="CX461" s="13"/>
-      <c r="CY461" s="13"/>
-      <c r="CZ461" s="13"/>
-      <c r="DA461" s="13"/>
-      <c r="DB461" s="13"/>
-      <c r="DC461" s="13"/>
+      <c r="DC461" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="462" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A462" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B462" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="C462" s="8"/>
       <c r="D462" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E462" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" s="10">
         <f t="shared" si="39"/>
@@ -84489,6 +84887,9 @@
       <c r="O462" t="s">
         <v>85</v>
       </c>
+      <c r="P462" t="s">
+        <v>85</v>
+      </c>
       <c r="Q462" s="12" t="s">
         <v>85</v>
       </c>
@@ -84507,7 +84908,9 @@
       <c r="V462" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W462" s="12"/>
+      <c r="W462" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X462" t="s">
         <v>85</v>
       </c>
@@ -84526,6 +84929,9 @@
       <c r="AC462" t="s">
         <v>85</v>
       </c>
+      <c r="AD462" t="s">
+        <v>85</v>
+      </c>
       <c r="AE462" s="12" t="s">
         <v>85</v>
       </c>
@@ -84544,7 +84950,9 @@
       <c r="AJ462" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK462" s="12"/>
+      <c r="AK462" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL462" t="s">
         <v>85</v>
       </c>
@@ -84555,33 +84963,59 @@
         <v>85</v>
       </c>
       <c r="AO462" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP462" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ462" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR462" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS462" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT462" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU462" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV462" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW462" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AP462" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ462" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS462" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT462" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU462" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV462" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW462" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="AX462" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY462" s="12"/>
+      <c r="AY462" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE462" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF462" t="s">
+        <v>85</v>
+      </c>
       <c r="BG462" s="13" t="s">
         <v>82</v>
       </c>
@@ -84595,19 +85029,24 @@
         <v>79</v>
       </c>
       <c r="BK462" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BL462" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BM462" s="13"/>
+      <c r="BM462" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BO462" t="s">
         <v>78</v>
       </c>
       <c r="BQ462" t="s">
         <v>79</v>
       </c>
-      <c r="BS462" t="s">
+      <c r="BR462" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT462" t="s">
         <v>90</v>
       </c>
       <c r="BU462" s="13" t="s">
@@ -84622,10 +85061,10 @@
       <c r="BX462" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BY462" s="13"/>
-      <c r="BZ462" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="BY462" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ462" s="13"/>
       <c r="CA462" s="13"/>
       <c r="CC462" t="s">
         <v>78</v>
@@ -84634,67 +85073,84 @@
         <v>79</v>
       </c>
       <c r="CE462" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="CF462" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG462" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="CH462" t="s">
+        <v>84</v>
       </c>
       <c r="CI462" s="13"/>
       <c r="CJ462" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK462" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL462" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM462" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN462" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO462" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ462" t="s">
         <v>90</v>
       </c>
-      <c r="CK462" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL462" s="13"/>
-      <c r="CM462" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CN462" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO462" s="13"/>
-      <c r="CP462" t="s">
+      <c r="CR462" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS462" t="s">
+        <v>79</v>
+      </c>
+      <c r="CU462" t="s">
+        <v>78</v>
+      </c>
+      <c r="CV462" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW462" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CQ462" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR462" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS462" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT462" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU462" t="s">
+      <c r="CX462" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CY462" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ462" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA462" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB462" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DC462" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CW462" s="13"/>
-      <c r="CX462" s="13"/>
-      <c r="CY462" s="13"/>
-      <c r="CZ462" s="13"/>
-      <c r="DA462" s="13"/>
-      <c r="DB462" s="13"/>
-      <c r="DC462" s="13"/>
     </row>
     <row r="463" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B463" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="C463" s="8"/>
       <c r="D463" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E463" s="9" t="b">
+        <v>15</v>
+      </c>
+      <c r="E463" s="14" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -84730,6 +85186,9 @@
       <c r="O463" t="s">
         <v>85</v>
       </c>
+      <c r="P463" t="s">
+        <v>85</v>
+      </c>
       <c r="Q463" s="12" t="s">
         <v>85</v>
       </c>
@@ -84748,7 +85207,9 @@
       <c r="V463" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W463" s="12"/>
+      <c r="W463" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X463" t="s">
         <v>85</v>
       </c>
@@ -84767,6 +85228,9 @@
       <c r="AC463" t="s">
         <v>85</v>
       </c>
+      <c r="AD463" t="s">
+        <v>85</v>
+      </c>
       <c r="AE463" s="12" t="s">
         <v>85</v>
       </c>
@@ -84785,7 +85249,9 @@
       <c r="AJ463" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK463" s="12"/>
+      <c r="AK463" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL463" t="s">
         <v>85</v>
       </c>
@@ -84796,33 +85262,59 @@
         <v>85</v>
       </c>
       <c r="AO463" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP463" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ463" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR463" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS463" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT463" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU463" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV463" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW463" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AP463" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ463" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS463" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT463" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU463" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV463" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW463" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="AX463" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY463" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="AY463" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE463" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF463" t="s">
+        <v>85</v>
+      </c>
       <c r="BG463" s="13" t="s">
         <v>82</v>
       </c>
@@ -84834,9 +85326,11 @@
         <v>79</v>
       </c>
       <c r="BK463" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL463" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="BL463" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BM463" s="13"/>
       <c r="BN463" t="s">
         <v>87</v>
@@ -84848,9 +85342,12 @@
         <v>79</v>
       </c>
       <c r="BR463" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS463" t="s">
         <v>82</v>
       </c>
-      <c r="BS463" t="s">
+      <c r="BT463" t="s">
         <v>84</v>
       </c>
       <c r="BU463" s="13"/>
@@ -84862,66 +85359,62 @@
       <c r="BY463" s="13"/>
       <c r="BZ463" s="13"/>
       <c r="CA463" s="13"/>
-      <c r="CB463" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC463" t="s">
+      <c r="CI463" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ463" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CD463" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE463" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF463" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI463" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CJ463" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="CK463" s="13" t="s">
         <v>78</v>
       </c>
       <c r="CL463" s="13"/>
-      <c r="CM463" s="13"/>
-      <c r="CN463" s="13"/>
+      <c r="CM463" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN463" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CO463" s="13"/>
       <c r="CP463" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ463" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR463" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW463" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CQ463" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR463" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU463" t="s">
-        <v>87</v>
-      </c>
-      <c r="CW463" s="13"/>
-      <c r="CX463" s="13"/>
-      <c r="CY463" s="13"/>
+      <c r="CX463" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY463" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CZ463" s="13"/>
       <c r="DA463" s="13"/>
       <c r="DB463" s="13"/>
-      <c r="DC463" s="13"/>
+      <c r="DC463" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="464" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B464" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="C464" s="8"/>
       <c r="D464" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E464" s="9" t="b">
+        <v>14</v>
+      </c>
+      <c r="E464" s="14" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -84957,6 +85450,9 @@
       <c r="O464" t="s">
         <v>85</v>
       </c>
+      <c r="P464" t="s">
+        <v>85</v>
+      </c>
       <c r="Q464" s="12" t="s">
         <v>85</v>
       </c>
@@ -84973,9 +85469,11 @@
         <v>81</v>
       </c>
       <c r="V464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="W464" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="W464" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X464" t="s">
         <v>85</v>
       </c>
@@ -84989,9 +85487,12 @@
         <v>85</v>
       </c>
       <c r="AB464" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AC464" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD464" t="s">
         <v>85</v>
       </c>
       <c r="AE464" s="12" t="s">
@@ -85004,15 +85505,17 @@
         <v>85</v>
       </c>
       <c r="AH464" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AI464" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK464" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="AK464" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL464" t="s">
         <v>85</v>
       </c>
@@ -85020,36 +85523,62 @@
         <v>81</v>
       </c>
       <c r="AN464" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AO464" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AP464" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ464" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR464" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS464" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT464" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU464" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV464" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW464" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX464" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AQ464" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX464" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY464" s="12"/>
+      <c r="AY464" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE464" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF464" t="s">
+        <v>85</v>
+      </c>
       <c r="BG464" s="13" t="s">
         <v>84</v>
       </c>
@@ -85059,7 +85588,9 @@
       <c r="BI464" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BJ464" s="13"/>
+      <c r="BJ464" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BK464" s="13"/>
       <c r="BL464" s="13"/>
       <c r="BM464" s="13"/>
@@ -85075,6 +85606,9 @@
       <c r="BR464" t="s">
         <v>83</v>
       </c>
+      <c r="BS464" t="s">
+        <v>83</v>
+      </c>
       <c r="BU464" s="13" t="s">
         <v>78</v>
       </c>
@@ -85084,13 +85618,13 @@
       <c r="BW464" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BX464" s="13" t="s">
+      <c r="BX464" s="13"/>
+      <c r="BY464" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BY464" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ464" s="13"/>
+      <c r="BZ464" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CA464" s="13"/>
       <c r="CB464" t="s">
         <v>78</v>
@@ -85098,72 +85632,86 @@
       <c r="CC464" t="s">
         <v>83</v>
       </c>
-      <c r="CD464" t="s">
+      <c r="CE464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH464" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI464" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ464" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK464" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CE464" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF464" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG464" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI464" s="13" t="s">
+      <c r="CL464" s="13"/>
+      <c r="CM464" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN464" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO464" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CP464" t="s">
         <v>82</v>
       </c>
-      <c r="CJ464" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK464" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL464" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM464" s="13"/>
-      <c r="CN464" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO464" s="13"/>
-      <c r="CP464" t="s">
+      <c r="CQ464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CR464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CS464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CT464" t="s">
+        <v>83</v>
+      </c>
+      <c r="CV464" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW464" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CQ464" t="s">
+      <c r="CX464" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CS464" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT464" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU464" t="s">
-        <v>90</v>
-      </c>
-      <c r="CW464" s="13"/>
-      <c r="CX464" s="13"/>
       <c r="CY464" s="13"/>
       <c r="CZ464" s="13"/>
-      <c r="DA464" s="13"/>
-      <c r="DB464" s="13"/>
-      <c r="DC464" s="13"/>
+      <c r="DA464" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB464" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC464" s="13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="465" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B465" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="C465" s="8"/>
       <c r="D465" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E465" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" s="10">
         <f t="shared" si="39"/>
@@ -85197,6 +85745,9 @@
       <c r="O465" t="s">
         <v>85</v>
       </c>
+      <c r="P465" t="s">
+        <v>85</v>
+      </c>
       <c r="Q465" s="12" t="s">
         <v>85</v>
       </c>
@@ -85215,7 +85766,9 @@
       <c r="V465" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W465" s="12"/>
+      <c r="W465" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X465" t="s">
         <v>85</v>
       </c>
@@ -85234,6 +85787,9 @@
       <c r="AC465" t="s">
         <v>85</v>
       </c>
+      <c r="AD465" t="s">
+        <v>85</v>
+      </c>
       <c r="AE465" s="12" t="s">
         <v>85</v>
       </c>
@@ -85244,33 +85800,38 @@
         <v>85</v>
       </c>
       <c r="AH465" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI465" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ465" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK465" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL465" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM465" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN465" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO465" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP465" t="s">
         <v>77</v>
       </c>
-      <c r="AI465" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ465" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK465" s="12"/>
-      <c r="AL465" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM465" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN465" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO465" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP465" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ465" t="s">
         <v>85</v>
       </c>
+      <c r="AR465" t="s">
+        <v>85</v>
+      </c>
       <c r="AS465" s="12" t="s">
         <v>85</v>
       </c>
@@ -85289,7 +85850,30 @@
       <c r="AX465" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY465" s="12"/>
+      <c r="AY465" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE465" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF465" t="s">
+        <v>85</v>
+      </c>
       <c r="BG465" s="13"/>
       <c r="BH465" s="13" t="s">
         <v>78</v>
@@ -85301,10 +85885,10 @@
         <v>86</v>
       </c>
       <c r="BK465" s="13"/>
-      <c r="BL465" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM465" s="13"/>
+      <c r="BL465" s="13"/>
+      <c r="BM465" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BO465" t="s">
         <v>78</v>
       </c>
@@ -85314,7 +85898,7 @@
       <c r="BQ465" t="s">
         <v>79</v>
       </c>
-      <c r="BS465" t="s">
+      <c r="BT465" t="s">
         <v>79</v>
       </c>
       <c r="BU465" s="13" t="s">
@@ -85329,60 +85913,59 @@
       <c r="CB465" t="s">
         <v>79</v>
       </c>
-      <c r="CE465" t="s">
-        <v>79</v>
-      </c>
       <c r="CI465" s="13"/>
       <c r="CJ465" s="13"/>
       <c r="CK465" s="13" t="s">
         <v>79</v>
       </c>
       <c r="CL465" s="13"/>
-      <c r="CM465" s="13"/>
-      <c r="CN465" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="CM465" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN465" s="13"/>
       <c r="CO465" s="13"/>
-      <c r="CP465" t="s">
-        <v>78</v>
-      </c>
-      <c r="CQ465" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR465" t="s">
-        <v>83</v>
-      </c>
       <c r="CS465" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT465" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV465" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW465" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX465" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY465" s="13"/>
+      <c r="CZ465" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA465" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB465" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CU465" t="s">
+      <c r="DC465" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CW465" s="13"/>
-      <c r="CX465" s="13"/>
-      <c r="CY465" s="13"/>
-      <c r="CZ465" s="13"/>
-      <c r="DA465" s="13"/>
-      <c r="DB465" s="13"/>
-      <c r="DC465" s="13"/>
     </row>
     <row r="466" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A466" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B466" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="C466" s="8"/>
       <c r="D466" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E466" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466" s="10">
         <f t="shared" si="39"/>
@@ -85416,6 +85999,9 @@
       <c r="O466" t="s">
         <v>85</v>
       </c>
+      <c r="P466" t="s">
+        <v>85</v>
+      </c>
       <c r="Q466" s="12" t="s">
         <v>85</v>
       </c>
@@ -85434,7 +86020,9 @@
       <c r="V466" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W466" s="12"/>
+      <c r="W466" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X466" t="s">
         <v>85</v>
       </c>
@@ -85453,6 +86041,9 @@
       <c r="AC466" t="s">
         <v>85</v>
       </c>
+      <c r="AD466" t="s">
+        <v>85</v>
+      </c>
       <c r="AE466" s="12" t="s">
         <v>85</v>
       </c>
@@ -85471,7 +86062,9 @@
       <c r="AJ466" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK466" s="12"/>
+      <c r="AK466" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL466" t="s">
         <v>85</v>
       </c>
@@ -85485,9 +86078,12 @@
         <v>85</v>
       </c>
       <c r="AP466" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ466" t="s">
         <v>77</v>
       </c>
-      <c r="AQ466" t="s">
+      <c r="AR466" t="s">
         <v>85</v>
       </c>
       <c r="AS466" s="12" t="s">
@@ -85508,7 +86104,30 @@
       <c r="AX466" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY466" s="12"/>
+      <c r="AY466" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE466" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF466" t="s">
+        <v>85</v>
+      </c>
       <c r="BG466" s="13"/>
       <c r="BH466" s="13" t="s">
         <v>78</v>
@@ -85519,13 +86138,13 @@
       <c r="BJ466" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BK466" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="BK466" s="13"/>
       <c r="BL466" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM466" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BM466" s="13"/>
       <c r="BO466" t="s">
         <v>79</v>
       </c>
@@ -85540,24 +86159,24 @@
       <c r="BX466" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BY466" s="13" t="s">
+      <c r="BY466" s="13"/>
+      <c r="BZ466" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BZ466" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA466" s="13"/>
+      <c r="CA466" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="CB466" t="s">
         <v>79</v>
       </c>
-      <c r="CE466" t="s">
-        <v>78</v>
-      </c>
       <c r="CF466" t="s">
         <v>79</v>
       </c>
+      <c r="CG466" t="s">
+        <v>79</v>
+      </c>
       <c r="CI466" s="13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="CJ466" s="13" t="s">
         <v>79</v>
@@ -85569,43 +86188,54 @@
         <v>78</v>
       </c>
       <c r="CM466" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="CN466" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO466" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CO466" s="13"/>
-      <c r="CR466" t="s">
-        <v>78</v>
-      </c>
       <c r="CS466" t="s">
         <v>79</v>
       </c>
       <c r="CT466" t="s">
-        <v>84</v>
-      </c>
-      <c r="CW466" s="13"/>
-      <c r="CX466" s="13"/>
-      <c r="CY466" s="13"/>
-      <c r="CZ466" s="13"/>
-      <c r="DA466" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="CW466" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX466" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY466" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ466" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA466" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="DB466" s="13"/>
       <c r="DC466" s="13"/>
     </row>
     <row r="467" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A467" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B467" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="C467" s="8"/>
       <c r="D467" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E467" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F467" s="10">
         <f t="shared" si="39"/>
@@ -85639,6 +86269,9 @@
       <c r="O467" t="s">
         <v>85</v>
       </c>
+      <c r="P467" t="s">
+        <v>85</v>
+      </c>
       <c r="Q467" s="12" t="s">
         <v>85</v>
       </c>
@@ -85657,7 +86290,9 @@
       <c r="V467" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W467" s="12"/>
+      <c r="W467" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X467" t="s">
         <v>85</v>
       </c>
@@ -85676,6 +86311,9 @@
       <c r="AC467" t="s">
         <v>85</v>
       </c>
+      <c r="AD467" t="s">
+        <v>85</v>
+      </c>
       <c r="AE467" s="12" t="s">
         <v>85</v>
       </c>
@@ -85686,33 +86324,38 @@
         <v>85</v>
       </c>
       <c r="AH467" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI467" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ467" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK467" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL467" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM467" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN467" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO467" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP467" t="s">
         <v>77</v>
       </c>
-      <c r="AI467" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ467" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK467" s="12"/>
-      <c r="AL467" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM467" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN467" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO467" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP467" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ467" t="s">
         <v>85</v>
       </c>
+      <c r="AR467" t="s">
+        <v>85</v>
+      </c>
       <c r="AS467" s="12" t="s">
         <v>85</v>
       </c>
@@ -85731,20 +86374,43 @@
       <c r="AX467" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY467" s="12"/>
+      <c r="AY467" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE467" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF467" t="s">
+        <v>85</v>
+      </c>
       <c r="BG467" s="13" t="s">
         <v>83</v>
       </c>
       <c r="BH467" s="13"/>
       <c r="BI467" s="13"/>
       <c r="BJ467" s="13"/>
-      <c r="BK467" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BK467" s="13"/>
       <c r="BL467" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BM467" s="13"/>
+      <c r="BM467" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BO467" t="s">
         <v>86</v>
       </c>
@@ -85754,7 +86420,7 @@
       <c r="BQ467" t="s">
         <v>86</v>
       </c>
-      <c r="BS467" t="s">
+      <c r="BT467" t="s">
         <v>83</v>
       </c>
       <c r="BU467" s="13" t="s">
@@ -85765,20 +86431,11 @@
       <c r="BX467" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BY467" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ467" s="13"/>
+      <c r="BY467" s="13"/>
+      <c r="BZ467" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CA467" s="13"/>
-      <c r="CE467" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF467" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG467" t="s">
-        <v>78</v>
-      </c>
       <c r="CI467" s="13" t="s">
         <v>78</v>
       </c>
@@ -85788,49 +86445,54 @@
       <c r="CK467" s="13"/>
       <c r="CL467" s="13"/>
       <c r="CM467" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN467" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO467" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU467" t="s">
         <v>86</v>
       </c>
-      <c r="CN467" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO467" s="13"/>
-      <c r="CP467" t="s">
-        <v>78</v>
-      </c>
-      <c r="CQ467" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR467" t="s">
+      <c r="CV467" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW467" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX467" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CY467" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CT467" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU467" t="s">
-        <v>80</v>
-      </c>
-      <c r="CW467" s="13"/>
-      <c r="CX467" s="13"/>
-      <c r="CY467" s="13"/>
       <c r="CZ467" s="13"/>
       <c r="DA467" s="13"/>
-      <c r="DB467" s="13"/>
-      <c r="DC467" s="13"/>
+      <c r="DB467" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC467" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="468" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A468" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B468" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="C468" s="8"/>
       <c r="D468" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E468" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F468" s="10">
         <f t="shared" si="39"/>
@@ -85864,6 +86526,9 @@
       <c r="O468" t="s">
         <v>85</v>
       </c>
+      <c r="P468" t="s">
+        <v>85</v>
+      </c>
       <c r="Q468" s="12" t="s">
         <v>85</v>
       </c>
@@ -85882,7 +86547,9 @@
       <c r="V468" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W468" s="12"/>
+      <c r="W468" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X468" t="s">
         <v>85</v>
       </c>
@@ -85901,6 +86568,9 @@
       <c r="AC468" t="s">
         <v>85</v>
       </c>
+      <c r="AD468" t="s">
+        <v>85</v>
+      </c>
       <c r="AE468" s="12" t="s">
         <v>85</v>
       </c>
@@ -85911,33 +86581,38 @@
         <v>85</v>
       </c>
       <c r="AH468" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI468" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ468" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK468" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL468" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM468" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN468" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO468" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP468" t="s">
         <v>77</v>
       </c>
-      <c r="AI468" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ468" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK468" s="12"/>
-      <c r="AL468" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM468" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN468" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO468" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP468" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ468" t="s">
         <v>85</v>
       </c>
+      <c r="AR468" t="s">
+        <v>85</v>
+      </c>
       <c r="AS468" s="12" t="s">
         <v>85</v>
       </c>
@@ -85956,7 +86631,30 @@
       <c r="AX468" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY468" s="12"/>
+      <c r="AY468" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE468" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF468" t="s">
+        <v>85</v>
+      </c>
       <c r="BG468" s="13" t="s">
         <v>78</v>
       </c>
@@ -85965,20 +86663,20 @@
       <c r="BJ468" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BK468" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BK468" s="13"/>
       <c r="BL468" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM468" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="BM468" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="BN468" t="s">
         <v>83</v>
       </c>
       <c r="BP468" t="s">
         <v>78</v>
       </c>
-      <c r="BS468" t="s">
+      <c r="BT468" t="s">
         <v>78</v>
       </c>
       <c r="BU468" s="13" t="s">
@@ -85986,79 +86684,77 @@
       </c>
       <c r="BV468" s="13"/>
       <c r="BW468" s="13"/>
-      <c r="BX468" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BX468" s="13"/>
       <c r="BY468" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BZ468" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA468" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CA468" s="13"/>
       <c r="CB468" t="s">
         <v>86</v>
       </c>
-      <c r="CD468" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE468" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF468" t="s">
+      <c r="CI468" s="13"/>
+      <c r="CJ468" s="13"/>
+      <c r="CK468" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL468" s="13"/>
+      <c r="CM468" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN468" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CI468" s="13"/>
-      <c r="CJ468" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK468" s="13"/>
-      <c r="CL468" s="13" t="s">
+      <c r="CO468" s="13"/>
+      <c r="CQ468" t="s">
+        <v>83</v>
+      </c>
+      <c r="CT468" t="s">
         <v>84</v>
       </c>
-      <c r="CM468" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN468" s="13"/>
-      <c r="CO468" s="13"/>
-      <c r="CP468" t="s">
+      <c r="CU468" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW468" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CQ468" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR468" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS468" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT468" t="s">
+      <c r="CX468" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY468" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ468" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA468" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB468" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CU468" t="s">
+      <c r="DC468" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CW468" s="13"/>
-      <c r="CX468" s="13"/>
-      <c r="CY468" s="13"/>
-      <c r="CZ468" s="13"/>
-      <c r="DA468" s="13"/>
-      <c r="DB468" s="13"/>
-      <c r="DC468" s="13"/>
     </row>
     <row r="469" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A469" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B469" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="C469" s="8"/>
       <c r="D469" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E469" s="9" t="b">
+        <v>16</v>
+      </c>
+      <c r="E469" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -86094,6 +86790,9 @@
       <c r="O469" t="s">
         <v>85</v>
       </c>
+      <c r="P469" t="s">
+        <v>85</v>
+      </c>
       <c r="Q469" s="12" t="s">
         <v>85</v>
       </c>
@@ -86112,7 +86811,9 @@
       <c r="V469" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W469" s="12"/>
+      <c r="W469" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X469" t="s">
         <v>85</v>
       </c>
@@ -86131,6 +86832,9 @@
       <c r="AC469" t="s">
         <v>85</v>
       </c>
+      <c r="AD469" t="s">
+        <v>85</v>
+      </c>
       <c r="AE469" s="12" t="s">
         <v>85</v>
       </c>
@@ -86141,33 +86845,38 @@
         <v>85</v>
       </c>
       <c r="AH469" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI469" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ469" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK469" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL469" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM469" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN469" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO469" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP469" t="s">
         <v>77</v>
       </c>
-      <c r="AI469" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ469" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK469" s="12"/>
-      <c r="AL469" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM469" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN469" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO469" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP469" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ469" t="s">
         <v>85</v>
       </c>
+      <c r="AR469" t="s">
+        <v>85</v>
+      </c>
       <c r="AS469" s="12" t="s">
         <v>85</v>
       </c>
@@ -86186,7 +86895,30 @@
       <c r="AX469" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY469" s="12"/>
+      <c r="AY469" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE469" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF469" t="s">
+        <v>85</v>
+      </c>
       <c r="BG469" s="13" t="s">
         <v>83</v>
       </c>
@@ -86194,29 +86926,29 @@
         <v>78</v>
       </c>
       <c r="BI469" s="13"/>
-      <c r="BJ469" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="BJ469" s="13"/>
       <c r="BK469" s="13" t="s">
         <v>86</v>
       </c>
       <c r="BL469" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM469" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="BM469" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BN469" t="s">
         <v>78</v>
       </c>
       <c r="BP469" t="s">
         <v>84</v>
       </c>
-      <c r="BQ469" t="s">
+      <c r="BR469" t="s">
         <v>86</v>
       </c>
-      <c r="BR469" t="s">
-        <v>78</v>
-      </c>
       <c r="BS469" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT469" t="s">
         <v>86</v>
       </c>
       <c r="BU469" s="13" t="s">
@@ -86224,75 +86956,77 @@
       </c>
       <c r="BV469" s="13"/>
       <c r="BW469" s="13"/>
-      <c r="BX469" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY469" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ469" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BX469" s="13"/>
+      <c r="BY469" s="13"/>
+      <c r="BZ469" s="13"/>
       <c r="CA469" s="13"/>
       <c r="CB469" t="s">
         <v>83</v>
       </c>
-      <c r="CE469" t="s">
-        <v>83</v>
-      </c>
       <c r="CF469" t="s">
         <v>78</v>
       </c>
       <c r="CG469" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI469" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CJ469" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK469" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="CH469" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI469" s="13"/>
+      <c r="CJ469" s="13"/>
+      <c r="CK469" s="13"/>
       <c r="CL469" s="13"/>
       <c r="CM469" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN469" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO469" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CP469" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ469" t="s">
         <v>86</v>
       </c>
-      <c r="CN469" s="13"/>
-      <c r="CO469" s="13"/>
-      <c r="CP469" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ469" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS469" t="s">
-        <v>78</v>
+      <c r="CR469" t="s">
+        <v>83</v>
       </c>
       <c r="CU469" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW469" s="13"/>
-      <c r="CX469" s="13"/>
-      <c r="CY469" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="CW469" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CX469" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY469" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CZ469" s="13"/>
       <c r="DA469" s="13"/>
       <c r="DB469" s="13"/>
-      <c r="DC469" s="13"/>
+      <c r="DC469" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="470" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A470" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B470" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="C470" s="8"/>
       <c r="D470" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E470" s="9" t="b">
+        <v>21</v>
+      </c>
+      <c r="E470" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -86305,7 +87039,7 @@
         <v>468</v>
       </c>
       <c r="H470" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I470" s="11">
         <v>1</v>
@@ -86328,6 +87062,9 @@
       <c r="O470" t="s">
         <v>85</v>
       </c>
+      <c r="P470" t="s">
+        <v>85</v>
+      </c>
       <c r="Q470" s="12" t="s">
         <v>85</v>
       </c>
@@ -86346,7 +87083,9 @@
       <c r="V470" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W470" s="12"/>
+      <c r="W470" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X470" t="s">
         <v>85</v>
       </c>
@@ -86365,6 +87104,9 @@
       <c r="AC470" t="s">
         <v>85</v>
       </c>
+      <c r="AD470" t="s">
+        <v>85</v>
+      </c>
       <c r="AE470" s="12" t="s">
         <v>85</v>
       </c>
@@ -86383,7 +87125,9 @@
       <c r="AJ470" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK470" s="12"/>
+      <c r="AK470" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL470" t="s">
         <v>85</v>
       </c>
@@ -86394,33 +87138,59 @@
         <v>85</v>
       </c>
       <c r="AO470" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP470" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ470" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR470" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS470" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT470" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU470" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV470" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW470" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AP470" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ470" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS470" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT470" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU470" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV470" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW470" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="AX470" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY470" s="12"/>
+      <c r="AY470" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE470" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF470" t="s">
+        <v>85</v>
+      </c>
       <c r="BG470" s="13" t="s">
         <v>78</v>
       </c>
@@ -86434,92 +87204,99 @@
         <v>78</v>
       </c>
       <c r="BK470" s="13"/>
-      <c r="BL470" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM470" s="13"/>
+      <c r="BL470" s="13"/>
+      <c r="BM470" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="BN470" t="s">
         <v>83</v>
       </c>
       <c r="BO470" t="s">
         <v>78</v>
       </c>
-      <c r="BR470" t="s">
-        <v>83</v>
-      </c>
       <c r="BS470" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT470" t="s">
         <v>78</v>
       </c>
       <c r="BU470" s="13"/>
       <c r="BV470" s="13"/>
       <c r="BW470" s="13"/>
-      <c r="BX470" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BX470" s="13"/>
       <c r="BY470" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BZ470" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA470" s="13"/>
-      <c r="CB470" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE470" t="s">
-        <v>78</v>
+        <v>78</v>
+      </c>
+      <c r="CA470" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="CF470" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG470" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI470" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ470" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK470" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL470" s="13"/>
+      <c r="CM470" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN470" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CI470" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ470" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CK470" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL470" s="13"/>
-      <c r="CM470" s="13"/>
-      <c r="CN470" s="13"/>
       <c r="CO470" s="13"/>
       <c r="CP470" t="s">
         <v>86</v>
       </c>
       <c r="CQ470" t="s">
+        <v>84</v>
+      </c>
+      <c r="CR470" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW470" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CR470" t="s">
+      <c r="CX470" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CT470" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU470" t="s">
-        <v>84</v>
-      </c>
-      <c r="CW470" s="13"/>
-      <c r="CX470" s="13"/>
-      <c r="CY470" s="13"/>
+      <c r="CY470" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="CZ470" s="13"/>
       <c r="DA470" s="13"/>
-      <c r="DB470" s="13"/>
-      <c r="DC470" s="13"/>
+      <c r="DB470" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DC470" s="13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="471" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A471" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B471" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>361</v>
+      </c>
       <c r="C471" s="8"/>
       <c r="D471" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E471" s="9" t="b">
+        <v>17</v>
+      </c>
+      <c r="E471" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -86532,7 +87309,7 @@
         <v>469</v>
       </c>
       <c r="H471" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I471" s="11">
         <v>1</v>
@@ -86555,6 +87332,9 @@
       <c r="O471" t="s">
         <v>85</v>
       </c>
+      <c r="P471" t="s">
+        <v>85</v>
+      </c>
       <c r="Q471" s="12" t="s">
         <v>85</v>
       </c>
@@ -86573,7 +87353,9 @@
       <c r="V471" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W471" s="12"/>
+      <c r="W471" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X471" t="s">
         <v>85</v>
       </c>
@@ -86592,6 +87374,9 @@
       <c r="AC471" t="s">
         <v>85</v>
       </c>
+      <c r="AD471" t="s">
+        <v>85</v>
+      </c>
       <c r="AE471" s="12" t="s">
         <v>85</v>
       </c>
@@ -86610,7 +87395,9 @@
       <c r="AJ471" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK471" s="12"/>
+      <c r="AK471" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL471" t="s">
         <v>85</v>
       </c>
@@ -86629,6 +87416,9 @@
       <c r="AQ471" t="s">
         <v>85</v>
       </c>
+      <c r="AR471" t="s">
+        <v>85</v>
+      </c>
       <c r="AS471" s="12" t="s">
         <v>85</v>
       </c>
@@ -86645,9 +87435,32 @@
         <v>85</v>
       </c>
       <c r="AX471" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY471" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE471" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF471" t="s">
         <v>77</v>
       </c>
-      <c r="AY471" s="12"/>
       <c r="BG471" s="13"/>
       <c r="BH471" s="13" t="s">
         <v>78</v>
@@ -86661,15 +87474,15 @@
       <c r="BK471" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BL471" s="13" t="s">
+      <c r="BL471" s="13"/>
+      <c r="BM471" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN471" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO471" t="s">
         <v>82</v>
-      </c>
-      <c r="BM471" s="13"/>
-      <c r="BN471" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO471" t="s">
-        <v>87</v>
       </c>
       <c r="BP471" t="s">
         <v>86</v>
@@ -86680,7 +87493,7 @@
       <c r="BR471" t="s">
         <v>86</v>
       </c>
-      <c r="BS471" t="s">
+      <c r="BT471" t="s">
         <v>78</v>
       </c>
       <c r="BU471" s="13" t="s">
@@ -86696,82 +87509,85 @@
       <c r="BY471" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BZ471" s="13" t="s">
+      <c r="BZ471" s="13"/>
+      <c r="CA471" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CA471" s="13"/>
-      <c r="CB471" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC471" t="s">
+      <c r="CE471" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI471" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ471" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CD471" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE471" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF471" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI471" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ471" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="CK471" s="13" t="s">
         <v>78</v>
       </c>
       <c r="CL471" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="CM471" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN471" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="CN471" s="13"/>
       <c r="CO471" s="13"/>
       <c r="CP471" t="s">
+        <v>83</v>
+      </c>
+      <c r="CQ471" t="s">
+        <v>86</v>
+      </c>
+      <c r="CR471" t="s">
+        <v>78</v>
+      </c>
+      <c r="CS471" t="s">
+        <v>83</v>
+      </c>
+      <c r="CT471" t="s">
+        <v>83</v>
+      </c>
+      <c r="CU471" t="s">
+        <v>83</v>
+      </c>
+      <c r="CV471" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW471" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CX471" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY471" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ471" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA471" s="13"/>
+      <c r="DB471" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CQ471" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR471" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS471" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT471" t="s">
-        <v>87</v>
-      </c>
-      <c r="CU471" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW471" s="13"/>
-      <c r="CX471" s="13"/>
-      <c r="CY471" s="13"/>
-      <c r="CZ471" s="13"/>
-      <c r="DA471" s="13"/>
-      <c r="DB471" s="13"/>
-      <c r="DC471" s="13"/>
+      <c r="DC471" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="472" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B472" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="C472" s="8"/>
       <c r="D472" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E472" s="9" t="b">
+        <v>23</v>
+      </c>
+      <c r="E472" s="14" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -86799,14 +87615,17 @@
         <v>85</v>
       </c>
       <c r="M472" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N472" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O472" t="s">
         <v>85</v>
       </c>
+      <c r="P472" t="s">
+        <v>85</v>
+      </c>
       <c r="Q472" s="12" t="s">
         <v>85</v>
       </c>
@@ -86825,7 +87644,9 @@
       <c r="V472" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W472" s="12"/>
+      <c r="W472" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X472" t="s">
         <v>85</v>
       </c>
@@ -86844,6 +87665,9 @@
       <c r="AC472" t="s">
         <v>85</v>
       </c>
+      <c r="AD472" t="s">
+        <v>85</v>
+      </c>
       <c r="AE472" s="12" t="s">
         <v>88</v>
       </c>
@@ -86854,38 +87678,43 @@
         <v>85</v>
       </c>
       <c r="AH472" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI472" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ472" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK472" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL472" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM472" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN472" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO472" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP472" t="s">
         <v>77</v>
       </c>
-      <c r="AI472" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ472" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK472" s="12"/>
-      <c r="AL472" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM472" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN472" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO472" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP472" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ472" t="s">
         <v>85</v>
       </c>
+      <c r="AR472" t="s">
+        <v>85</v>
+      </c>
       <c r="AS472" s="12" t="s">
         <v>85</v>
       </c>
       <c r="AT472" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AU472" s="12" t="s">
         <v>85</v>
@@ -86899,7 +87728,30 @@
       <c r="AX472" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY472" s="12"/>
+      <c r="AY472" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ472" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA472" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB472" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC472" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD472" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE472" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF472" t="s">
+        <v>85</v>
+      </c>
       <c r="BG472" s="13" t="s">
         <v>78</v>
       </c>
@@ -86909,20 +87761,20 @@
       <c r="BI472" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BJ472" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BJ472" s="13"/>
       <c r="BK472" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL472" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BL472" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM472" s="13"/>
+      <c r="BM472" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BQ472" t="s">
         <v>79</v>
       </c>
-      <c r="BS472" t="s">
+      <c r="BT472" t="s">
         <v>87</v>
       </c>
       <c r="BU472" s="13" t="s">
@@ -86933,10 +87785,10 @@
       </c>
       <c r="BW472" s="13"/>
       <c r="BX472" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="BY472" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="BZ472" s="13"/>
       <c r="CA472" s="13"/>
@@ -86946,58 +87798,62 @@
       <c r="CD472" t="s">
         <v>79</v>
       </c>
-      <c r="CE472" t="s">
-        <v>83</v>
+      <c r="CF472" t="s">
+        <v>84</v>
       </c>
       <c r="CG472" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CI472" s="13"/>
       <c r="CJ472" s="13" t="s">
         <v>78</v>
       </c>
       <c r="CK472" s="13"/>
-      <c r="CL472" s="13"/>
+      <c r="CL472" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="CM472" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="CN472" s="13"/>
-      <c r="CO472" s="13"/>
-      <c r="CP472" t="s">
+      <c r="CO472" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CR472" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS472" t="s">
+      <c r="CU472" t="s">
+        <v>79</v>
+      </c>
+      <c r="CW472" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="CX472" s="13"/>
+      <c r="CY472" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ472" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CT472" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU472" t="s">
+      <c r="DA472" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB472" s="13"/>
+      <c r="DC472" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CW472" s="13"/>
-      <c r="CX472" s="13"/>
-      <c r="CY472" s="13"/>
-      <c r="CZ472" s="13"/>
-      <c r="DA472" s="13"/>
-      <c r="DB472" s="13"/>
-      <c r="DC472" s="13"/>
     </row>
     <row r="473" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A473" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B473" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="C473" s="8"/>
       <c r="D473" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E473" s="9" t="b">
+        <v>21</v>
+      </c>
+      <c r="E473" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -87033,6 +87889,9 @@
       <c r="O473" t="s">
         <v>85</v>
       </c>
+      <c r="P473" t="s">
+        <v>85</v>
+      </c>
       <c r="Q473" s="12" t="s">
         <v>85</v>
       </c>
@@ -87046,12 +87905,14 @@
         <v>85</v>
       </c>
       <c r="U473" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V473" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="W473" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="W473" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X473" t="s">
         <v>85</v>
       </c>
@@ -87068,6 +87929,9 @@
         <v>85</v>
       </c>
       <c r="AC473" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD473" t="s">
         <v>88</v>
       </c>
       <c r="AE473" s="12" t="s">
@@ -87083,12 +87947,14 @@
         <v>85</v>
       </c>
       <c r="AI473" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AJ473" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK473" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="AK473" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL473" t="s">
         <v>85</v>
       </c>
@@ -87105,7 +87971,10 @@
         <v>85</v>
       </c>
       <c r="AQ473" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AR473" t="s">
+        <v>85</v>
       </c>
       <c r="AS473" s="12" t="s">
         <v>85</v>
@@ -87123,62 +87992,85 @@
         <v>85</v>
       </c>
       <c r="AX473" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY473" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE473" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF473" t="s">
         <v>77</v>
       </c>
-      <c r="AY473" s="12"/>
       <c r="BG473" s="13"/>
       <c r="BH473" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BI473" s="13"/>
       <c r="BJ473" s="13"/>
-      <c r="BK473" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BK473" s="13"/>
       <c r="BL473" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM473" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="BM473" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BN473" t="s">
         <v>78</v>
       </c>
       <c r="BO473" t="s">
         <v>84</v>
       </c>
-      <c r="BP473" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR473" t="s">
-        <v>78</v>
+      <c r="BQ473" t="s">
+        <v>83</v>
       </c>
       <c r="BS473" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT473" t="s">
         <v>83</v>
       </c>
       <c r="BU473" s="13"/>
       <c r="BV473" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BW473" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX473" s="13"/>
-      <c r="BY473" s="13" t="s">
+      <c r="BW473" s="13"/>
+      <c r="BX473" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY473" s="13"/>
+      <c r="BZ473" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BZ473" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA473" s="13"/>
+      <c r="CA473" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CC473" t="s">
         <v>82</v>
       </c>
-      <c r="CD473" t="s">
+      <c r="CE473" t="s">
         <v>84</v>
       </c>
-      <c r="CE473" t="s">
+      <c r="CF473" t="s">
         <v>86</v>
       </c>
-      <c r="CF473" t="s">
+      <c r="CG473" t="s">
         <v>78</v>
       </c>
       <c r="CI473" s="13"/>
@@ -87186,41 +88078,40 @@
         <v>78</v>
       </c>
       <c r="CK473" s="13"/>
-      <c r="CL473" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM473" s="13"/>
+      <c r="CL473" s="13"/>
+      <c r="CM473" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CN473" s="13"/>
       <c r="CO473" s="13"/>
-      <c r="CR473" t="s">
-        <v>86</v>
-      </c>
-      <c r="CS473" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU473" t="s">
-        <v>83</v>
-      </c>
       <c r="CW473" s="13"/>
       <c r="CX473" s="13"/>
       <c r="CY473" s="13"/>
-      <c r="CZ473" s="13"/>
-      <c r="DA473" s="13"/>
+      <c r="CZ473" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA473" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="DB473" s="13"/>
-      <c r="DC473" s="13"/>
+      <c r="DC473" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="474" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A474" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B474" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="C474" s="8"/>
       <c r="D474" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E474" s="9" t="b">
+        <v>23</v>
+      </c>
+      <c r="E474" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -87256,6 +88147,9 @@
       <c r="O474" t="s">
         <v>85</v>
       </c>
+      <c r="P474" t="s">
+        <v>85</v>
+      </c>
       <c r="Q474" s="12" t="s">
         <v>85</v>
       </c>
@@ -87274,7 +88168,9 @@
       <c r="V474" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W474" s="12"/>
+      <c r="W474" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X474" t="s">
         <v>85</v>
       </c>
@@ -87293,6 +88189,9 @@
       <c r="AC474" t="s">
         <v>85</v>
       </c>
+      <c r="AD474" t="s">
+        <v>85</v>
+      </c>
       <c r="AE474" s="12" t="s">
         <v>85</v>
       </c>
@@ -87311,7 +88210,9 @@
       <c r="AJ474" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK474" s="12"/>
+      <c r="AK474" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL474" t="s">
         <v>85</v>
       </c>
@@ -87325,129 +88226,152 @@
         <v>85</v>
       </c>
       <c r="AP474" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ474" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR474" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX474" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AQ474" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS474" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT474" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU474" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV474" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW474" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX474" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY474" s="12"/>
+      <c r="AY474" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ474" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA474" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB474" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC474" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD474" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE474" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF474" t="s">
+        <v>85</v>
+      </c>
       <c r="BG474" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="BH474" s="13" t="s">
         <v>86</v>
       </c>
       <c r="BI474" s="13"/>
-      <c r="BJ474" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="BJ474" s="13"/>
       <c r="BK474" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BL474" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM474" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="BM474" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="BN474" t="s">
         <v>84</v>
       </c>
-      <c r="BQ474" t="s">
-        <v>83</v>
-      </c>
       <c r="BR474" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BS474" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT474" t="s">
         <v>83</v>
       </c>
       <c r="BU474" s="13"/>
       <c r="BV474" s="13"/>
       <c r="BW474" s="13"/>
-      <c r="BX474" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="BX474" s="13"/>
       <c r="BY474" s="13" t="s">
         <v>78</v>
       </c>
       <c r="BZ474" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="CA474" s="13"/>
-      <c r="CE474" t="s">
+      <c r="CA474" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI474" s="13"/>
+      <c r="CJ474" s="13"/>
+      <c r="CK474" s="13"/>
+      <c r="CL474" s="13"/>
+      <c r="CM474" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CG474" t="s">
+      <c r="CN474" s="13"/>
+      <c r="CO474" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CI474" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CJ474" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK474" s="13"/>
-      <c r="CL474" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM474" s="13"/>
-      <c r="CN474" s="13"/>
-      <c r="CO474" s="13"/>
       <c r="CP474" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="CQ474" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR474" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS474" t="s">
         <v>78</v>
       </c>
       <c r="CT474" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU474" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW474" s="13"/>
-      <c r="CX474" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="CW474" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="CX474" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="CY474" s="13"/>
-      <c r="CZ474" s="13"/>
-      <c r="DA474" s="13"/>
-      <c r="DB474" s="13"/>
-      <c r="DC474" s="13"/>
+      <c r="CZ474" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA474" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB474" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC474" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="475" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A475" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B475" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="C475" s="8"/>
       <c r="D475" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E475" s="9" t="b">
+        <v>14</v>
+      </c>
+      <c r="E475" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -87460,7 +88384,7 @@
         <v>473</v>
       </c>
       <c r="H475" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I475" s="11">
         <v>3</v>
@@ -87483,6 +88407,9 @@
       <c r="O475" t="s">
         <v>85</v>
       </c>
+      <c r="P475" t="s">
+        <v>85</v>
+      </c>
       <c r="Q475" s="12" t="s">
         <v>85</v>
       </c>
@@ -87501,7 +88428,9 @@
       <c r="V475" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W475" s="12"/>
+      <c r="W475" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X475" t="s">
         <v>85</v>
       </c>
@@ -87520,6 +88449,9 @@
       <c r="AC475" t="s">
         <v>85</v>
       </c>
+      <c r="AD475" t="s">
+        <v>85</v>
+      </c>
       <c r="AE475" s="12" t="s">
         <v>85</v>
       </c>
@@ -87533,12 +88465,14 @@
         <v>85</v>
       </c>
       <c r="AI475" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AJ475" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AK475" s="12"/>
+      <c r="AK475" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL475" t="s">
         <v>85</v>
       </c>
@@ -87557,6 +88491,9 @@
       <c r="AQ475" t="s">
         <v>88</v>
       </c>
+      <c r="AR475" t="s">
+        <v>85</v>
+      </c>
       <c r="AS475" s="12" t="s">
         <v>85</v>
       </c>
@@ -87575,7 +88512,30 @@
       <c r="AX475" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY475" s="12"/>
+      <c r="AY475" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE475" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF475" t="s">
+        <v>85</v>
+      </c>
       <c r="BG475" s="13"/>
       <c r="BH475" s="13" t="s">
         <v>83</v>
@@ -87586,13 +88546,13 @@
       <c r="BJ475" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BK475" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="BK475" s="13"/>
       <c r="BL475" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM475" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="BM475" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="BO475" t="s">
         <v>87</v>
       </c>
@@ -87602,10 +88562,10 @@
       <c r="BQ475" t="s">
         <v>86</v>
       </c>
-      <c r="BR475" t="s">
-        <v>78</v>
-      </c>
       <c r="BS475" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT475" t="s">
         <v>86</v>
       </c>
       <c r="BU475" s="13"/>
@@ -87616,10 +88576,10 @@
         <v>82</v>
       </c>
       <c r="BX475" s="13"/>
-      <c r="BY475" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ475" s="13"/>
+      <c r="BY475" s="13"/>
+      <c r="BZ475" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="CA475" s="13"/>
       <c r="CB475" t="s">
         <v>78</v>
@@ -87627,59 +88587,63 @@
       <c r="CD475" t="s">
         <v>83</v>
       </c>
-      <c r="CG475" t="s">
+      <c r="CF475" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI475" s="13"/>
+      <c r="CJ475" s="13"/>
+      <c r="CK475" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL475" s="13"/>
+      <c r="CM475" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN475" s="13"/>
+      <c r="CO475" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CI475" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ475" s="13"/>
-      <c r="CK475" s="13"/>
-      <c r="CL475" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM475" s="13" t="s">
+      <c r="CP475" t="s">
+        <v>83</v>
+      </c>
+      <c r="CU475" t="s">
         <v>82</v>
       </c>
-      <c r="CN475" s="13" t="s">
+      <c r="CV475" t="s">
         <v>80</v>
       </c>
-      <c r="CO475" s="13"/>
-      <c r="CP475" t="s">
+      <c r="CW475" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CR475" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS475" t="s">
-        <v>78</v>
-      </c>
-      <c r="CT475" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU475" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW475" s="13"/>
       <c r="CX475" s="13"/>
-      <c r="CY475" s="13"/>
-      <c r="CZ475" s="13"/>
-      <c r="DA475" s="13"/>
+      <c r="CY475" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ475" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA475" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="DB475" s="13"/>
-      <c r="DC475" s="13"/>
+      <c r="DC475" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="476" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B476" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="C476" s="8"/>
       <c r="D476" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E476" s="9" t="b">
+        <v>21</v>
+      </c>
+      <c r="E476" s="15" t="b">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -87715,6 +88679,9 @@
       <c r="O476" t="s">
         <v>85</v>
       </c>
+      <c r="P476" t="s">
+        <v>85</v>
+      </c>
       <c r="Q476" s="12" t="s">
         <v>85</v>
       </c>
@@ -87733,7 +88700,9 @@
       <c r="V476" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W476" s="12"/>
+      <c r="W476" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="X476" t="s">
         <v>85</v>
       </c>
@@ -87752,6 +88721,9 @@
       <c r="AC476" t="s">
         <v>85</v>
       </c>
+      <c r="AD476" t="s">
+        <v>85</v>
+      </c>
       <c r="AE476" s="12" t="s">
         <v>85</v>
       </c>
@@ -87762,15 +88734,17 @@
         <v>85</v>
       </c>
       <c r="AH476" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AI476" s="12" t="s">
         <v>85</v>
       </c>
       <c r="AJ476" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK476" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="AK476" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="AL476" t="s">
         <v>85</v>
       </c>
@@ -87784,30 +88758,56 @@
         <v>85</v>
       </c>
       <c r="AP476" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ476" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR476" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX476" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AQ476" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX476" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY476" s="12"/>
+      <c r="AY476" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE476" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF476" t="s">
+        <v>85</v>
+      </c>
       <c r="BG476" s="13" t="s">
         <v>78</v>
       </c>
@@ -87816,10 +88816,10 @@
       </c>
       <c r="BI476" s="13"/>
       <c r="BJ476" s="13"/>
-      <c r="BK476" s="13" t="s">
+      <c r="BK476" s="13"/>
+      <c r="BL476" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BL476" s="13"/>
       <c r="BM476" s="13"/>
       <c r="BN476" t="s">
         <v>86</v>
@@ -87831,9 +88831,12 @@
         <v>83</v>
       </c>
       <c r="BR476" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS476" t="s">
         <v>86</v>
       </c>
-      <c r="BS476" t="s">
+      <c r="BT476" t="s">
         <v>78</v>
       </c>
       <c r="BU476" s="13" t="s">
@@ -87843,83 +88846,83 @@
       <c r="BW476" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BX476" s="13" t="s">
+      <c r="BX476" s="13"/>
+      <c r="BY476" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="BY476" s="13" t="s">
+      <c r="BZ476" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="BZ476" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="CA476" s="13"/>
       <c r="CB476" t="s">
         <v>78</v>
       </c>
-      <c r="CC476" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE476" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF476" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG476" t="s">
-        <v>78</v>
+      <c r="CH476" t="s">
+        <v>83</v>
       </c>
       <c r="CI476" s="13"/>
       <c r="CJ476" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK476" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK476" s="13"/>
+      <c r="CL476" s="13"/>
+      <c r="CM476" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN476" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CO476" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ476" t="s">
+        <v>83</v>
+      </c>
+      <c r="CR476" t="s">
         <v>86</v>
       </c>
-      <c r="CL476" s="13" t="s">
+      <c r="CT476" t="s">
         <v>86</v>
       </c>
-      <c r="CM476" s="13"/>
-      <c r="CN476" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO476" s="13"/>
-      <c r="CP476" t="s">
+      <c r="CV476" t="s">
+        <v>78</v>
+      </c>
+      <c r="CW476" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CR476" t="s">
-        <v>78</v>
-      </c>
-      <c r="CS476" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT476" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU476" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW476" s="13"/>
       <c r="CX476" s="13"/>
-      <c r="CY476" s="13"/>
-      <c r="CZ476" s="13"/>
-      <c r="DA476" s="13"/>
-      <c r="DB476" s="13"/>
-      <c r="DC476" s="13"/>
+      <c r="CY476" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ476" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA476" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB476" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC476" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="477" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A477" s="7">
         <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="B477" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="C477" s="8"/>
       <c r="D477" s="9">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E477" s="9" t="b">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477" s="10">
         <f t="shared" si="39"/>
@@ -87930,7 +88933,7 @@
         <v>475</v>
       </c>
       <c r="H477" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I477" s="11">
         <v>1</v>
@@ -87953,6 +88956,9 @@
       <c r="O477" t="s">
         <v>88</v>
       </c>
+      <c r="P477" t="s">
+        <v>88</v>
+      </c>
       <c r="Q477" s="12" t="s">
         <v>85</v>
       </c>
@@ -87971,7 +88977,9 @@
       <c r="V477" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="W477" s="12"/>
+      <c r="W477" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="X477" t="s">
         <v>85</v>
       </c>
@@ -87990,6 +88998,9 @@
       <c r="AC477" t="s">
         <v>88</v>
       </c>
+      <c r="AD477" t="s">
+        <v>88</v>
+      </c>
       <c r="AE477" s="12" t="s">
         <v>85</v>
       </c>
@@ -88008,7 +89019,9 @@
       <c r="AJ477" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AK477" s="12"/>
+      <c r="AK477" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="AL477" t="s">
         <v>85</v>
       </c>
@@ -88025,6 +89038,9 @@
         <v>88</v>
       </c>
       <c r="AQ477" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR477" t="s">
         <v>88</v>
       </c>
       <c r="AS477" s="12" t="s">
@@ -88045,7 +89061,30 @@
       <c r="AX477" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AY477" s="12"/>
+      <c r="AY477" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ477" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA477" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB477" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC477" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD477" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE477" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF477" t="s">
+        <v>88</v>
+      </c>
       <c r="BG477" s="13"/>
       <c r="BH477" s="13" t="s">
         <v>86</v>
@@ -88059,7 +89098,9 @@
       <c r="BK477" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BL477" s="13"/>
+      <c r="BL477" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="BM477" s="13"/>
       <c r="BO477" t="s">
         <v>79</v>
@@ -88070,7 +89111,7 @@
       <c r="BQ477" t="s">
         <v>87</v>
       </c>
-      <c r="BS477" t="s">
+      <c r="BR477" t="s">
         <v>78</v>
       </c>
       <c r="BU477" s="13"/>
@@ -88081,46 +89122,51 @@
       <c r="BX477" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BY477" s="13"/>
+      <c r="BY477" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="BZ477" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CA477" s="13"/>
-      <c r="CE477" t="s">
-        <v>78</v>
+      <c r="CA477" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="CG477" t="s">
         <v>78</v>
       </c>
       <c r="CI477" s="13"/>
       <c r="CJ477" s="13"/>
-      <c r="CK477" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="CK477" s="13"/>
       <c r="CL477" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM477" s="13"/>
+      <c r="CN477" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO477" s="13"/>
+      <c r="CR477" t="s">
+        <v>78</v>
+      </c>
+      <c r="CS477" t="s">
         <v>82</v>
       </c>
-      <c r="CM477" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="CN477" s="13"/>
-      <c r="CO477" s="13"/>
-      <c r="CQ477" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR477" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS477" t="s">
+      <c r="CT477" t="s">
         <v>78</v>
       </c>
       <c r="CU477" t="s">
         <v>83</v>
       </c>
       <c r="CW477" s="13"/>
-      <c r="CX477" s="13"/>
-      <c r="CY477" s="13"/>
-      <c r="CZ477" s="13"/>
+      <c r="CX477" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY477" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ477" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="DA477" s="13"/>
       <c r="DB477" s="13"/>
       <c r="DC477" s="13"/>
